--- a/scrapping/Anais/Corps/Corps_AnaisProduct.xlsx
+++ b/scrapping/Anais/Corps/Corps_AnaisProduct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1138">
   <si>
     <t>Produit</t>
   </si>
@@ -25,12 +25,12 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Categorie</t>
-  </si>
-  <si>
     <t>Lien</t>
   </si>
   <si>
+    <t>Image</t>
+  </si>
+  <si>
     <t>ACM DÉPIWHITE LAIT CORPS</t>
   </si>
   <si>
@@ -67,9 +67,6 @@
     <t>ALMAFLORE ARGILE ROSE 100GR</t>
   </si>
   <si>
-    <t>ALMAFLORE ARGILE VERTE SURFINE 100GR</t>
-  </si>
-  <si>
     <t>ALMAFLORE ARTICALME DOULEURS ARTICULAIRES 50 ML</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
     <t>ALMAFLORE RELAX FLORE HUILE DE MASSAGE RELAXANT 100ML</t>
   </si>
   <si>
+    <t>ALMAFLORE SAVON NOIR A L’EUCALYPTUS 150 GR</t>
+  </si>
+  <si>
     <t>ALMAFLORE SÉRUM ANTI VERGETURES 30ML</t>
   </si>
   <si>
@@ -277,6 +277,9 @@
     <t>ELANCYL SLIM DESIGN SOIN CELLULITE REBELLE JOUR 150ML</t>
   </si>
   <si>
+    <t>ENERGIE FRUIT – 2EN1 MASQUE + APRÈS-SHAMPOOING CARAMEL &amp; HUILE D’ARGAN BIO</t>
+  </si>
+  <si>
     <t>ENERGIE FRUIT – 2EN1 MASQUE + APRÈS-SHAMPOOING COCO ET BEURRE DE KARITÉ BIO</t>
   </si>
   <si>
@@ -304,9 +307,6 @@
     <t>ENERGIE FRUIT – GEL DOUCHE HYDRATANT COCO ET BEURRE DE KARITÉ BIO</t>
   </si>
   <si>
-    <t>ENERGIE FRUIT – GEL DOUCHE HYDRATANT FRUIT DE LA PASSION ET HUILE D’ARGAN BIO</t>
-  </si>
-  <si>
     <t>ENERGIE FRUIT – GEL DOUCHE HYDRATANT GOYAVE</t>
   </si>
   <si>
@@ -325,7 +325,7 @@
     <t>ENERGIE FRUIT – LAIT HYDRATANT MONOÏ ET HUILE D’ARGAN BIO</t>
   </si>
   <si>
-    <t>ENERGIE FRUIT COFFRET SHAMPOING+MASQUE+GEL DOUCHE</t>
+    <t>ENERGIE FRUIT GEL DOUCHE – VANILLE &amp; HUILE DE BURITI BIO 500ML</t>
   </si>
   <si>
     <t>ESTHELLE CICAPLAIE CICATRISANTE 50GR</t>
@@ -355,6 +355,9 @@
     <t>EYE CARE VERNIS SOIN TRAITANT DURCISSEUR</t>
   </si>
   <si>
+    <t>GEL DOUCHE – FLEUR D’ORANGER &amp; HUILE DE LIN BIO 500ml</t>
+  </si>
+  <si>
     <t>GIBAUD MANUGIB RHIZARTHROSE FONCTION</t>
   </si>
   <si>
@@ -391,6 +394,9 @@
     <t>HERBI FEET COMODIGEL</t>
   </si>
   <si>
+    <t>HERBI FEET CORRECTEUR DE NUIT D’OIGNONS</t>
+  </si>
+  <si>
     <t>HERBI FEET PLANTILLA SIFTAL</t>
   </si>
   <si>
@@ -451,9 +457,15 @@
     <t>LAINO LAIT NUTRITIF CONFORT</t>
   </si>
   <si>
+    <t>LAINO MES ESSENTIELS BEAUTE</t>
+  </si>
+  <si>
     <t>LIERAC PHYTOLASTIL GEL 200ML</t>
   </si>
   <si>
+    <t>LIERAC SENSORIELLE – HUILE SECHE TONIFIANTE</t>
+  </si>
+  <si>
     <t>LIRENE CHAUSSETTES DELICATE AND SMOOTH 3% UREA</t>
   </si>
   <si>
@@ -523,6 +535,9 @@
     <t>PAPULEX LOTION 125ML</t>
   </si>
   <si>
+    <t>PHYTEAL FITALGINE GEL RELAXANT 50ML</t>
+  </si>
+  <si>
     <t>PHYTO – PHYTOSPECIFIC SPRAY DÉMÊLANT MAGIQUE 200ML</t>
   </si>
   <si>
@@ -823,6 +838,9 @@
     <t>19.950 TND TTC</t>
   </si>
   <si>
+    <t>14.490 TND TTC</t>
+  </si>
+  <si>
     <t>42.550 TND TTC</t>
   </si>
   <si>
@@ -952,6 +970,9 @@
     <t>86.900 TND TTC</t>
   </si>
   <si>
+    <t>23.500 TND TTC</t>
+  </si>
+  <si>
     <t>25.600 TND TTC</t>
   </si>
   <si>
@@ -973,7 +994,7 @@
     <t>20.200 TND TTC</t>
   </si>
   <si>
-    <t>59.300 TND TTC</t>
+    <t>14.800 TND 12.990 TND TTC</t>
   </si>
   <si>
     <t>19.250 TND TTC</t>
@@ -997,6 +1018,9 @@
     <t>35.450 TND TTC</t>
   </si>
   <si>
+    <t>14.850 TND 12.990 TND TTC</t>
+  </si>
+  <si>
     <t>59.500 TND TTC</t>
   </si>
   <si>
@@ -1015,6 +1039,9 @@
     <t>34.900 TND TTC</t>
   </si>
   <si>
+    <t>55.600 TND TTC</t>
+  </si>
+  <si>
     <t>57.150 TND TTC</t>
   </si>
   <si>
@@ -1075,9 +1102,15 @@
     <t>42.130 TND TTC</t>
   </si>
   <si>
+    <t>128.900 TND TTC</t>
+  </si>
+  <si>
     <t>93.280 TND TTC</t>
   </si>
   <si>
+    <t>69.800 TND TTC</t>
+  </si>
+  <si>
     <t>26.000 TND TTC</t>
   </si>
   <si>
@@ -1135,6 +1168,9 @@
     <t>42.600 TND TTC</t>
   </si>
   <si>
+    <t>18.500 TND TTC</t>
+  </si>
+  <si>
     <t>54.476 TND TTC</t>
   </si>
   <si>
@@ -1195,7 +1231,7 @@
     <t>42.900 TND TTC</t>
   </si>
   <si>
-    <t>31.500 TND TTC</t>
+    <t>32.900 TND 29.600 TND TTC</t>
   </si>
   <si>
     <t>41.480 TND TTC</t>
@@ -1210,7 +1246,7 @@
     <t>41.700 TND TTC</t>
   </si>
   <si>
-    <t>25.038 TND TTC</t>
+    <t>25.038 TND 22.500 TND TTC</t>
   </si>
   <si>
     <t>62.300 TND TTC</t>
@@ -1321,7 +1357,7 @@
     <t>50.790 TND TTC</t>
   </si>
   <si>
-    <t>43.900 TND 39.950 TND TTC</t>
+    <t>43.900 TND TTC</t>
   </si>
   <si>
     <t>Il assure une hydratation de très longue durée, apaise les sensations de tiraillements et restaure le confort cutané. Hydratant intense et durable, ce lait corps bénéficie d’une texture fluide, non grasse, facile à appliquer après la douche. Pour une peau souple et soyeuse à tout âge. Son action éclaircissante complémentaire grâce à une association d’actifs végétaux permet de freiner la surproduction de mélanine d’éclaircir et d’homogénéiser l’aspect de la peau.</t>
@@ -1360,9 +1396,6 @@
     <t>L’Argile Rose est connue pour être absorbante, décongestionnante, régénérante et apaisante. L’Argile Rose Almaflore élimine les toxines et les impuretés, revitalise et apaise la peau en favorisant la reconstitution cellulaire saine. Grâce à sa richesse en micro-nutriments, elle apporte à la peau et à l’organisme des minéraux et des oligo-éléments. Elle est également antiseptique et cicatrisante.</t>
   </si>
   <si>
-    <t>L’argile verte est particulièrement bien adaptée au soin des peaux mixtes à grasses. Elle absorbe et régule l’excès de sébum, élimine les impuretés, revitalise la peau et favorise le renouvellement cellulaire.</t>
-  </si>
-  <si>
     <t>C’est une huile de massage concentrée pour traiter les douleurs articulaires et calmer les douleurs du nerfs sciatique.</t>
   </si>
   <si>
@@ -1423,6 +1456,9 @@
     <t>Un massage à l’Huile relaxante à la Lavande en fin de journée ou en période de stress a une action apaisante et favorise l’harmonie entre le corps et l’esprit. Utilisée le soir, elle facilite la détente propice à l’endormissement.</t>
   </si>
   <si>
+    <t>Ce savon est riche en vitamine E qui possède des propriétés hydratantes &amp; lutte contre le vieillissement de la peauL’huile d’olive donne de la souplesse et de l’éclat à la peauCette huile est régénérante &amp; protectriceCe savon n’agresse pas la peau</t>
+  </si>
+  <si>
     <t>Prévient l’apparition des vergetures, favorise la réduction des vergeture déjà installées et améliore l’élasticité de la peau. Ce soin raffermissant inédit à la prodigieuse capacité de tonifier la peau de l’intérieur grâce aux actifs ultra innovants de rose musquée qui gonflent les cellulites de l’épiderme et booste la réparation tissulaire.La peau est rapidement densifiée et lissée, la silhouette est ferme et redessinée.</t>
   </si>
   <si>
@@ -1555,6 +1591,9 @@
     <t>1er soin du Laboratoire Elancyl qui lutte contre les 3 dimensions de la celluliteDÉSTOCKAGE – DÉ-RIGIDIFICATION – DRAINAGEUne révolution anti-capitons en 3 actes : le [Complexe Caféine]3D est capable d’agir sur les 3 facteurs majeurs de la cellulite pour un lissage visible de la peau d’orange.Texture astucieuse : pigments réflecteurs pour un lissage optique immédiat de la peau dès 1ère application.</t>
   </si>
   <si>
+    <t>Aussi doux qu’un doudou avec vos cheveux je suis ! Grâce à ma formule saine, retrouvez des cheveux nourris et hydratés jusqu’aux pointes et déposez sur votre crinière un parfum gourmand et sucré.Formule testée dermatologiquement et composée de 97% d’ingrédients d’origine naturelle, fabriquée en Provence.0% silicones, parabens, colorants et sulfates.</t>
+  </si>
+  <si>
     <t>Un soin 2-en-1 au beurre de karité pour des cheveux doux et réparés ! Découvrez le masque capillaire qui va vous faire aimer les soins pour cheveux ! Prendre soin de ses cheveux n’a jamais été aussi simple qu’avec le 2-en-1 Masque + Après-Shampoing Coco &amp; Beurre de Karité. Adieu les masques pour cheveux au temps de pose interminable qui alourdissent vos longueurs et bienvenue à ce soin pour cheveux 2-en-1 qui va révolutionnervotre rituel capillaire et vous donner envie de vous occuper de votre chevelure.</t>
   </si>
   <si>
@@ -1582,9 +1621,6 @@
     <t>Le petit nouveau, c’est lui ! Gorgé de pep’s et de vitamines, d’un parfum subtil et gourmand &amp; d’une illustration canon, ce gel douche pétillant a été élaboré pour vous aider à bien commencer la journée ! Formule testée dermatologiquement et composée de 95% d’ingrédients d’origine naturelle, fabriquée en Provence. 0% parabens, silicones, pH neutre.</t>
   </si>
   <si>
-    <t>Fruit de la passion l’exotiqueL’été, une plage, le soleil qui se couche sur une mer turquoiseÉvadez-vous chaque jour avec notre gel douche et bain moussant au parfum des îlesFormule testée dermato logiquement et composée de 94% d’ingrédients d’origine naturelle, fabriquée en Provence0% Parabènes, silicones, pH neutre</t>
-  </si>
-  <si>
     <t>Le petit nouveau, c’est lui ! Gorgé de pep’s et de vitamines, d’un parfum subtil et gourmand &amp; d’une illustration canon, ce gel douche pétillant a été élaboré pour vous aider à bien commencer la journée ! Formule testée dermatologiquement  composéede 95% d’ingrédients d’origine naturelle, fabriquée en Provence. 0% parabens, silicones, pH neutre.</t>
   </si>
   <si>
@@ -1603,7 +1639,7 @@
     <t>Accordez-vous une petite pause de tendresse avec ce lait hydratant Monoï et Huile d’Argan BIO aussi enivrant que gourmand.Cet élixir a pour mission de rafraîchir votre peau en été, de la réconforter en hiver et de l’hydrater tout au long de l’année.Formule testée dermatologiquement, composée de 97% d’ingrédients d’origine naturelle et fabriquée en Provence. 0% parabens, silicones et pH neutre</t>
   </si>
   <si>
-    <t>Shampoing : Le shampoing Vanille et Huile Buriti est indiqué pour les cheveux colorés. Vos cheveux sont nettoyés en profondeur, détoxifiés et apaisés. Votre couleur est préservée.Gel Douche: Ce gel douche est une véritable caresse sur votre peau ! Sa formule naturelle et ses propriétés hydratantes vous procurent une peau ultra-douce enveloppée d’une délicieuse fragrance pour vous évader chaque jour.Masque : Le masque capillaire Energie Fruit Vanille constitue une étape indispensable dans le soin des cheveux. Offrez à vos cheveux ce moment de régénération et ils vous le rendront par leur vitalité et leur beauté.</t>
+    <t>Ce gel douche hydratant – sans silicones, parabens, ni colorants – donne l’eau à la bouche avec sa senteur addictive de vanille. Formulée à 98% d’ingrédients d’origine naturelle et enrichie en huile de buriti bio, sa formule riche en acides gras ravira les peaux sèches qui retrouveront souplesse et hydratation !</t>
   </si>
   <si>
     <t>Une crème cicatrisante, grasse, hypoallergénique et sans parabène: Anti-inflammatoire, régénérant.Hydratante, protectrice Cicatrisante, régénérant. Antibactérienne, antiseptique. Nutritive.</t>
@@ -1633,6 +1669,9 @@
     <t>Ce Vernis Soin est le produit idéal pour renforcer les ongles mous, fragilisés ou cassants.</t>
   </si>
   <si>
+    <t xml:space="preserve">Cette texture gelée enrichie en glycérine naturelle hydratante se transforme en une mousse fine et soyeuse au contact de ta peau, libérant un parfum Fleur d’Oranger exotique. Douce et souple, ta peau ne tiraille pas et reste confortable. </t>
+  </si>
+  <si>
     <t>Préconisée pour l’arthrose du pouce, Port en fonction de la douleur phase chronique. Economie articulaire et aide aux gestes de la vie quotidienne et du travail, Facilité de mise en place</t>
   </si>
   <si>
@@ -1669,6 +1708,9 @@
     <t>Le Coussinet de gel est en Bande élastique de tissu extra doux et sans couture.Dans la zone plantaire, il dispose d’un rembourrage en gel de qualité supérieureCaractéristiques :Protection de la partie avant du piedProtection des têtes métatarsesEmpêche la formation de callosités</t>
   </si>
   <si>
+    <t>Si vous pensez que la gravité de votre situation est élevée ou que vous souffrez de douleurs, allez directement chez votre spécialiste, sinon, vous pouvez essayer l’un de ces traitements dont nous vous expliquons ci-dessous :Portez des chaussures larges et confortables pour que les orteils aient suffisamment d’espaceVous pouvez consulter votre médecin le plus proche au sujet de la consommation d’une certaine classe de médicamentsIl y a des semelles intérieures coussinées qui aident à répartir uniformément la pression du piedSi vous remarquez un niveau d’inflammation plus élevé, vous pouvez appliquer de la glace sur la zone</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ce produit contient un silicone souple inséré dans la région du métatarse et du talon.Il est conçu pour les douleurs musculaires et tendineuses. Soulagement des pieds fatigués. Réduit les surpressions et les douleurs à l’avant du pied et du talon. Un effet de massage qui active la circulation sanguin </t>
   </si>
   <si>
@@ -1729,9 +1771,15 @@
     <t>Nourrit.  Apaise les tiraillements 24h d’hydratation* continue 98% d’ingrédients d’origine naturelle.Hydratation des couches supérieures de l’épiderme. **Formulé pour minimiser les risques d’allergies Grâce au beurre de karité et à l’association glycérine, huile de sésame BIO et extrait de fleur d’hibiscus blanc, ce soin hypoallergénique* apaise la peau qui tiraille et assure une hydratation** continue pendant 24H. Nourrie, la peau délicatement parfumée.</t>
   </si>
   <si>
+    <t>LAINO LAIT NUTRITIF DOUCEUR MIEL BIO, 400 ML: Grâce au miel de garrigue BIO et à l’association glycérine, cire d’abeille et huile de tournesolBIO, ce soin hypoallergénique assouplit les peaux sensibles et assure une hydratation** continue pendant 24H.Adoucie, la peau délicatement parfumée est protégée.LAINO LOTION MICELLAIRE ECLAT VISAGE ET YEUX 500 ML: Grâce aux extraits de thé blanc, la Lotion Micellaire Eclat Haute Tolérance nettoie en douceur le visage et les yeux et élimine le maquillage résistant à l’eau.LAINO Protection intense – Crème mains karité, 50ml: Crème hydratante et régénérante pour les mains desséchées, abîmées, gercées. Permet de lutter contre les agressions externes quotidiennes.LAINO Gommage Douceur Eclat, 50 ml: Pour les peaux sensibles, un exfoliant doux aux extraits naturels inédits pour un teint lisse et éclatant.</t>
+  </si>
+  <si>
     <t>Puberté, Grossesse, Variations de PoidsFormulé avec le complexe végétal alchémille – lierre – prêle restructurant, ce gel non gras contribue à prévenir l’apparition des vergetures sur les seins, le ventre, les hanches et les cuisses.PHYTOLASTIL, des soins hautement concentrés en naturalité : avec plus de 97% d’ingrédients d’origine naturelle**Phytolastil Gel : 97,87% / Soluté : 98,32% / Ampoules : 99,52% de naturalité</t>
   </si>
   <si>
+    <t>Une huile sèche dynamisante, hydratation 24h, à vaporiser chaque matin pour un réveil énergique et tout en sensorialité. Cette huile légère au toucher sec et soyeux renferme une sélection d’huiles végétales ultra hydratantes et le parfum tonifiant aux 3 fleurs d’agrumes.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lirene les chaussettes régénérantes sont un traitement innovant en deux étapes que vous pouvez effectuer vous-même à la maison: le peeling enzymatique grossier intensément lissant, lorsqu’il est utilisé avant l’application du masque, lisse et nettoie la peau de l’épiderme mort, augmentant l’absorption des principes actifs.Le masque régénérant sous forme de chaussettes, grâce à la riche composition en nutriments, élimine immédiatement les rugosités et les gerçures de l’épiderme, redonnant douceur et douceur aux pieds. </t>
   </si>
   <si>
@@ -1798,6 +1846,9 @@
     <t>PAPULEX lotion nettoyante est spécialement adaptée aux peaux jeunes à problèmes. Son action antiinflammatoire et antibactérienne, permet de favoriser la disparition des imperfections.La Lotion PAPULEX favorise la disparition des imperfections grâce à ses ingrédients clés (Nicotinamide et ABA – anti-adhésion bactérienne).Un geste simple et rapide pour le visage ou les surfaces plus étendues (dos, poitrine).</t>
   </si>
   <si>
+    <t>Relaxe et procure une sensation de bien être immédiate et durable. HUILE ESSENTIELLE DE ROMARIN : L’huile essentielle de romarin est relaxante. HUILE ESSENTIELLE DE MENTHE : L’huile essentielle de menthe est tonifiante, stimulante et rafraîchissante.FITALGINE ne présente aucune contre-indication ni limitation d’emploi. Convient à l’enfant, à l’adulte et à la femme enceinte. Formule hypoallergénique, non comédogène, non testée sur les animaux.</t>
+  </si>
+  <si>
     <t>Sos « anti-noeuds », SOS « anti-pleurs » , ce soin dompte en douceur les textures frisées et crépues les plus rebelles des enfants, en offrant un démêlage instantané ! Hypoallergénique, sa formule, sans sulfate, sans parabène, sans silicone et sans huile minérale, assure un coiffage en toute sécurité. Plaisir et naturalité se conjuguent avec performance démêlante et hydratante pour rendre ce soin Magique .</t>
   </si>
   <si>
@@ -2029,9 +2080,6 @@
     <t>https://anais.tn/produit/12450/</t>
   </si>
   <si>
-    <t>https://anais.tn/produit/almaflore-argile-verte-surfine-100gr/</t>
-  </si>
-  <si>
     <t>https://anais.tn/produit/almaflore-articalme-douleurs-articulaires-50-ml/</t>
   </si>
   <si>
@@ -2101,6 +2149,9 @@
     <t>https://anais.tn/produit/almaflore-relaxflore-huile-de-massage-relaxant-100ml/</t>
   </si>
   <si>
+    <t>https://anais.tn/produit/almaflore-savon-noir-a-leucalyptus-150-gr/</t>
+  </si>
+  <si>
     <t>https://anais.tn/produit/almaflore-serum-anti-vergetures-30ml/</t>
   </si>
   <si>
@@ -2242,6 +2293,9 @@
     <t>https://anais.tn/produit/elancyl-slim-design-soin-cellulite-rebelle-jour-150ml/</t>
   </si>
   <si>
+    <t>https://anais.tn/produit/2en1-masque-apres-shampooing-caramel-huile-dargan-bio/</t>
+  </si>
+  <si>
     <t>https://anais.tn/produit/2en1-masque-apres-shampooing-coco-et-beurre-de-karite-bio/</t>
   </si>
   <si>
@@ -2269,9 +2323,6 @@
     <t>https://anais.tn/produit/gel-douche-hydratant-coco-et-beurre-de-karite-bio/</t>
   </si>
   <si>
-    <t>https://anais.tn/produit/gel-douche-hydratant-fruit-de-la-passion-et-huile-dargan-bio/</t>
-  </si>
-  <si>
     <t>https://anais.tn/produit/gel-douche-hydratant-goyave/</t>
   </si>
   <si>
@@ -2290,7 +2341,7 @@
     <t>https://anais.tn/produit/lait-hydratant-monoi-et-huile-dargan-bio/</t>
   </si>
   <si>
-    <t>https://anais.tn/produit/energie-fruit-coffret-shampoingmasquegel-douche/</t>
+    <t>https://anais.tn/produit/energie-fruit-gel-douche-vanille-huile-de-buriti-bio-500ml/</t>
   </si>
   <si>
     <t>https://anais.tn/produit/esthelle-cicaplaie-cicatrisante-50gr/</t>
@@ -2320,6 +2371,9 @@
     <t>https://anais.tn/produit/eye-care-vernis-soin-traitant-durcisseur/</t>
   </si>
   <si>
+    <t>https://anais.tn/produit/gel-douche-fleur-doranger-huile-de-lin-bio-500ml/</t>
+  </si>
+  <si>
     <t>https://anais.tn/produit/gibaud-manugib-rhizarthrose-fonction/</t>
   </si>
   <si>
@@ -2356,6 +2410,9 @@
     <t>https://anais.tn/produit/herbi-feet-comodigel/</t>
   </si>
   <si>
+    <t>https://anais.tn/produit/herbi-feet-correcteur-de-nuit-doignons/</t>
+  </si>
+  <si>
     <t>https://anais.tn/produit/herbi-feet-plantilla-siftal/</t>
   </si>
   <si>
@@ -2416,9 +2473,15 @@
     <t>https://anais.tn/produit/laino-lait-nutritif-confort/</t>
   </si>
   <si>
+    <t>https://anais.tn/produit/laino-mes-essentiels-beaute/</t>
+  </si>
+  <si>
     <t>https://anais.tn/produit/lierac-phytolastil-gel-200ml/</t>
   </si>
   <si>
+    <t>https://anais.tn/produit/lierac-sensorielle-huile-seche-tonifiante/</t>
+  </si>
+  <si>
     <t>https://anais.tn/produit/lirene-chaussettes-delicate-and-smooth-3-urea/</t>
   </si>
   <si>
@@ -2488,6 +2551,9 @@
     <t>https://anais.tn/produit/papulex-lotion-125ml/</t>
   </si>
   <si>
+    <t>https://anais.tn/produit/cytolnat-arthrogine-huile-de-massage/</t>
+  </si>
+  <si>
     <t>https://anais.tn/produit/phyto-phytospecific-spray-demelant-magique-200ml/</t>
   </si>
   <si>
@@ -2684,6 +2750,684 @@
   </si>
   <si>
     <t>https://anais.tn/produit/xerolan-spray/</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/1-1-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/3760095250519-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/01/F00003063-p1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/01/Aderma-creme-mains-avoine-rhealba-50ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/Exomega-control-huile-lavante-emolliente-A-Derma-Flacon-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/02/3282770106183-compressed-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/02/A-DERMA-EXOMEGA-HUILE-NETTOYANTE-ÉMOLLIENTE-200ML-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/02/3282770110166-exomega-control-lait-emollient-200-ml-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/3282770110173-a-derma-exomega-c-lait-emol-400ml-2x-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/01/Présentation1-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-argile-jaune-100gr-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/40147-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/anais-almaflore-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-beurre-de-karite-brut-bio-100-g.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-beurre-de-karite-desodorise-150-g.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-gel-d-aloe-vera-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-ghassoul-ou-rassoul-200gr-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-d-ortie-10-ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/para-anais-amande-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/para-anais-amande-douce-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/anais-parapharmacie-argan-min.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/para-anais-argan-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-d-ortie-30-ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-carthame-10ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/anais-para-fenugrec-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-fenugrec-50ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-moutarde-50-ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-nigelle-10-ml-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/huile-de-nigelle-50ml-almaflore-almaflore-huiles-serums.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-noix-de-coco-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/download.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-noyau-d-abricot-10-ml-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/anais-parapharmacie-huile-abricot-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/anais-parapharmacie-arbre-a-the-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-relaxflore-huile-de-massage-relaxant.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/compressed-pbwa.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/anais-parapharmacie-veinoflore-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/avene-cicalfate-mains-creme-reparatrice-isolante-100-ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/avene-cold-cream-creme-mains-50ml-f1200-f1200.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/avene-cold-cream-pain-surgras-visage-et-corps-peaux-sensibles-seches-a-tres-seches-100-g.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/bio-oil-125ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/bio-oil-200ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/compressed-hito.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/BIO-OIL-60ML-ANAIS-PARAPHARMACIE-min.jpeg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-d-argan-biologique.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-d-avocat.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-bourrache.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-carotte.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-germes-de-ble-10ml90ml.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-lentisque.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-lin.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-nigelle.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/unnamed-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/huile-vegetale-de-noix-de-coco-10ml-bio-orient.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/huile-vegetale-de-noix-de-coco-90ml-bio-orient-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-souchet.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/mains-et-ongles.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/01/Bioderma-huile-de-douche-100ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/huile-de-douche-200ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/intensive-baume-200ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/intensive-gel-moussant-500ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/01/9dc045f9-7ebe-4e9e-ae28-40295001a4e0-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/3447752-129313-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/pp-baume-200ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/sos-sparay-50ml-bis.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/ad16aef9354430da40f5702cf38de15b-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/photoderm-max-lait-solaire-spf-100-100-ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/téléchargement-min-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/arthrogine-gel-creme-50-ml.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/08/dermacare-purenet-skin-min-e1629887552636.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/DERMACEUTIC-Hyal-ceutic-hydratation-intense-tube-30ml-14114_2_1468404118-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/06/3282770203929-ld-0023-front-5dad88490f754.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/06/ducray-hidrosis-control-creme-50-mljpg.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/06/DUCRAY-Ictyane-lait-hydratant-33945_101_1532353882.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/06/3282770075540-ictyane-pain-dermatologique-100g-2x.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/06/28.1_0d06c112-f6fb-4645-8550-0b8771fb8a12_1000x.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/11/elancyl-cellu-slim-ventre-plat-150ml-1-removebg-preview-min.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/energie-fruit-masque-et-apres-shampoing-pour-cheve.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/264719-energie-fruit-coco-beurre-de-karite-bio-cheveux-boucles-masque-apres-shampooing-2-en-1-sans-silicone-300ml-flacon-pompe-1000x1000-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/creme-douche-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/3760207114647_PHOTOSITE_20191101_061105_0.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/0711642-1-3760207116429-energie-fruit-creme-hydratante-mousse-mains-corps-75ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/xenergie-fruit-gel-douche-bio-fleur-d-oranger-et-huile-de-coco.jpg.pagespeed.ic_.ZritJVQ9bR.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/energie-fruit-gel-douche-bio-tiare-aloe-vera.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/gel-douche-verveine-aloe-vera-bio.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/xenergie-fruit-gel-douche-bio-fruit-de-la-passion-aloe-vera.jpg.pagespeed.ic_.q0dDOFyVmn.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/coco-beurre-de-karité.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/gel-douche-goyave.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/energie-fruit-gel-douche-monoi-et-huile-de-macadamia-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/x-energie-fruit-huile-de-douche-fleur-de-monoi-et-2-huiles-argan-olive.jpg.pagespeed.ic_.jkt7znQh6G.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/monoi-bio_10.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/x-energie-fruit-lait-hydratant-coco-et-huile-d-argan.jpg.pagespeed.ic_.UA6511gH6j.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/energie-fruit-lait-hydratant-monoi-huile-dargan-bio.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/12/gel-douche-anais-parapharmacie-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/esthelle-phyto-vasculex-removebg-preview.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/08/4005800024146-urearepair-plus-emollient-10-d-uree-250ml-2x.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/EXCIPIAL-PROTECT-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/dissolvant-sans-acetone-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/vernis-amer-haute-tolerance-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/vernis-soin-blanchissant-anti-jaunissement-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/eye-care-vernis-soin-fortifiant-lissant-8ml-f1200-f1200.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/vernis-soin-traitant-durcisseur-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/12/energie-fruit-ma-douche-de-soin-anais-parapharmacie-min-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/3d0c7821-cda8-42db-a5fc-aa958db9c4e2_6683-Manugib-Rhiza-Fonction-min.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/11/20211127_120648-min-1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/compressed-uwg0.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/06/hei-poa-eau-de-toilette-sensualite-exotique-solo-parfum.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/monoi-de-tahiti-hei-poa-mille-fleurs-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/hei-poa-pur-manoi-tahiti-elixir-d-amour-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/compressed-k6dn.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/pur-monoi-de-tahiti-hei-poa-tiare-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/1_1id8-ip.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/monoi-collection-hei-poa-tropical-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/11/herbi-feet-coussinet-metatarse-s-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/12/corrector-nocturno-juanetes-herbi-feet-protectores-anais-parapharmacie-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/11/unnamed-1-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/11/talonera-de-gel-autoadhesiva-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/Neotone-lait-body-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/08/1-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/KUORA-SUNSCREEN-SPF-50-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/unnamed-2.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/kuora-body-lotion.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/w4dnkkftmmzulvfqmrnz-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/plgzysffx0kojzlq19ld-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/la-roche-posay-cicaplast-baume-b5-spf-50-40-ml-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/la-roche-posay-cicaplast-baume-b5-baume-reparateur-apaisant-40ml-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/la-roche-posay-cicaplast-mains-50ml-f1200-f1200.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/téléchargement.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/LA-ROCHE-POSAY-LIPIKAR-LAIT-RELIPIDANT-CORPS-TUBE-200-ML-min.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/la-roche-posay-lipikar-xerand-creme-mains-creme-50ml.390472-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/24ccc5906eab0ad0d69b61f515fbdb71-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/site-laino-602827-1024x1024-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/site-laino-602669-1024x1024-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/dd84330fe302f3e6ebceaa403e1a0787.jpg.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/site-laino-602755-1024x1024-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/12/20211215_093606-min-scaled.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/5e288113ed81c_phytolastil_reflet-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/lierac-sensorielle-huile-seche-tonifiante-100ml-f1200-f1200-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/09/lirene-chaussettes-delicate-and-smooth-3-urea-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/09/lirene-gel-exfoliant-de-corp-mocca-caffe-200ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/09/lirene-gommage-corps-himalayan-salt-200-ml-min-e1632996404495.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/09/LIRENE-Gommage-Corporel-Corindon-Precieux-200GR-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/09/lirene-gommage-tube-mangue-200ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/09/lirene-gommage-tube-sea-minerals-200ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/09/lirene-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/09/lirene-huile-de-douche-mangue-jasmin-400ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/flash-5ampoules.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/dsp-mask.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/05/muriac-lightact-lotion-lactee-eclaircissante-anti-tache-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/05/Muriac-savon-exfoliant.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/agar-450-coupe-faim-naturalya.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/NMLN.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/11/noreva-exfoliac-gel-moussant-intensif-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/01/noreva-xerodiane-ap-huile-nettoyante-sans-parfum-400ml-f1200-f1200.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/COFFRET-Nuxe-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/COFFRET-floral-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/COFFRET-nuxe-miel-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/09/3264680022494-trousse-prodigieuse-mon-rituel-beaute-2x-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/03/53668f2e48b477e69bc6737784223d9aa66a9e46_3264680012525-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/05/NUXE.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/LOTION-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/fitalgine-gel-relaxant-50ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/phyto-phytospecific-kids-spray-demelant-magique-200ml-500x500-removebg-preview.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/5ec80b34433a7_phytoelixir_mask-min.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/revital-10ml-fr-scaled.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/08/creme-de-douche-karite-magnolia-roge-cavailles-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/08/roge-cavailles-nutrissance-creme-mains-douceur-50ml-f1200-f1200.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/08/51BXxe2qnFL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/ROGECAVAILLESDEOSOINDERMATOSPRAYSANSSELD_ALUMINIUM150ML_1000x.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/ROGECAVAILLESDERMO-U.H.T.CREMELAVANTESURGRAS500ML_1000x.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/dermo-uht-creme-lavante-surgras-roge-cavailles-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/roge-cavailles-dermo-uht-pain-surgras-100g-f1200-f1200-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/gel-douche-extra-doux-amande-douce-roge-cavailles-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/REPASKIN-Dry-touch-SPF-50.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/compressed-okwc.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/SK60450-PACKSHOT-1-C-removebg-preview-1.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/ongles.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/SVR-XERIAL-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/barriere.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/baume-en-spray.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/baume-intennsif-200ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/baume-avant-200ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/baume-lavant-400ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/creme-200ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/creme-400ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/gal-lavant-1l.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/gel-lavant-200ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/huile-lavante-1l.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/huile-lavante-200ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/mains.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/lait-corps.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/lait-corps-400ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/creme-4.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/creme-pieds.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/extreme-creme-pieds.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/fissures-et-crevasses.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/04/peel-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/topicrem-da-baume-emollient-200ml-f1200-f1200-min.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/01/gel_intime_1000x1000-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/3700281702408-gel-nettoyant-topicrem-corps-cheveux-x-200-ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/3401546206852-gel-nettoyant-douceur-corps-cheveux-500-ml-2x-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/01/topicrem-mela-lait-eclaircissant-ultra-hydratant-200ml-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/topicrem-sos-creme-reparatrice-pieds-75ml-f1200-f1200-min.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/topicrem-lait-corps-ultra-hydratant-200ml-f1200-f1200-min.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/topicrem-creme-mains-ultra-hydratante-peaux-tres-seches-et-abimees-75ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/after-sun.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/baby.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/g4bxiymvlinc85p2wej4.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/teinté-ivory.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/s-l640.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/kids.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/CREME-MAINS.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/clod-cream.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/croute-de-lait.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/creme-lavante-500ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/eau-nettoyante.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/creme-deau.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/contour-des-yeux.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/vichy-creme-depilatoire-dermo-tolerance-tube-de-150ml-01-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/vita_citral_soin_anti_taches_et_anti_age_creme_eclaircissante_mains_75_ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/Vita-Citral-Soin-Velours-100ml-340px.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/asepta-vita-citral-soin-tr-gel-tres-reparateur-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/08/pediakids-huile-de-menthe.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/08/3572-phytothera-huile-minceur-60ml-500x500-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/08/vital-phytoveine-gel-90-gr.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/03/Xerolan-Nuevo-optim-compressed.jpg</t>
   </si>
 </sst>
 </file>
@@ -3054,7 +3798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3082,16 +3826,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D2" t="s">
-        <v>552</v>
+        <v>448</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>659</v>
+        <v>912</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3099,16 +3843,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D3" t="s">
-        <v>552</v>
+        <v>449</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>677</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>660</v>
+        <v>913</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3116,16 +3860,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D4" t="s">
-        <v>552</v>
+        <v>450</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>661</v>
+        <v>914</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3133,16 +3877,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>439</v>
-      </c>
-      <c r="D5" t="s">
-        <v>552</v>
+        <v>451</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>679</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>662</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3150,16 +3894,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D6" t="s">
-        <v>552</v>
+        <v>452</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>680</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>663</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3167,16 +3911,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D7" t="s">
-        <v>552</v>
+        <v>453</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>681</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>664</v>
+        <v>917</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3184,16 +3928,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>442</v>
-      </c>
-      <c r="D8" t="s">
-        <v>552</v>
+        <v>454</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>682</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>665</v>
+        <v>918</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3201,16 +3945,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
-        <v>443</v>
-      </c>
-      <c r="D9" t="s">
-        <v>552</v>
+        <v>455</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>683</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>666</v>
+        <v>919</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3218,16 +3962,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>444</v>
-      </c>
-      <c r="D10" t="s">
-        <v>552</v>
+        <v>456</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>684</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>667</v>
+        <v>920</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3235,16 +3979,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C11" t="s">
-        <v>445</v>
-      </c>
-      <c r="D11" t="s">
-        <v>552</v>
+        <v>457</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>685</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>668</v>
+        <v>921</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3252,16 +3996,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
-        <v>446</v>
-      </c>
-      <c r="D12" t="s">
-        <v>552</v>
+        <v>458</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>686</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>669</v>
+        <v>922</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3269,16 +4013,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>447</v>
-      </c>
-      <c r="D13" t="s">
-        <v>552</v>
+        <v>459</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>687</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>670</v>
+        <v>923</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3286,16 +4030,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C14" t="s">
-        <v>448</v>
-      </c>
-      <c r="D14" t="s">
-        <v>552</v>
+        <v>460</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>688</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>671</v>
+        <v>924</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3303,16 +4047,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C15" t="s">
-        <v>449</v>
-      </c>
-      <c r="D15" t="s">
-        <v>552</v>
+        <v>461</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>689</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>672</v>
+        <v>925</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3320,16 +4064,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C16" t="s">
-        <v>450</v>
-      </c>
-      <c r="D16" t="s">
-        <v>552</v>
+        <v>462</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>690</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>673</v>
+        <v>926</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3337,16 +4081,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D17" t="s">
-        <v>552</v>
+        <v>463</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>674</v>
+        <v>927</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3354,16 +4098,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C18" t="s">
-        <v>452</v>
-      </c>
-      <c r="D18" t="s">
-        <v>552</v>
+        <v>464</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>675</v>
+        <v>928</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3371,16 +4115,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>453</v>
-      </c>
-      <c r="D19" t="s">
-        <v>552</v>
+        <v>465</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>676</v>
+        <v>929</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3388,16 +4132,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
-        <v>454</v>
-      </c>
-      <c r="D20" t="s">
-        <v>552</v>
+        <v>466</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>694</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>677</v>
+        <v>930</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3405,16 +4149,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C21" t="s">
-        <v>455</v>
-      </c>
-      <c r="D21" t="s">
-        <v>552</v>
+        <v>466</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>678</v>
+        <v>931</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3422,16 +4166,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C22" t="s">
-        <v>455</v>
-      </c>
-      <c r="D22" t="s">
-        <v>552</v>
+        <v>467</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>696</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>679</v>
+        <v>932</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3439,16 +4183,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s">
-        <v>456</v>
-      </c>
-      <c r="D23" t="s">
-        <v>552</v>
+        <v>467</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>697</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>680</v>
+        <v>933</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3456,16 +4200,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C24" t="s">
-        <v>456</v>
-      </c>
-      <c r="D24" t="s">
-        <v>552</v>
+        <v>468</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>681</v>
+        <v>934</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3473,16 +4217,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C25" t="s">
-        <v>457</v>
-      </c>
-      <c r="D25" t="s">
-        <v>552</v>
+        <v>469</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>699</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>682</v>
+        <v>935</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3490,16 +4234,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C26" t="s">
-        <v>458</v>
-      </c>
-      <c r="D26" t="s">
-        <v>552</v>
+        <v>470</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>700</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>683</v>
+        <v>936</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3507,16 +4251,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C27" t="s">
-        <v>459</v>
-      </c>
-      <c r="D27" t="s">
-        <v>552</v>
+        <v>471</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>701</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>684</v>
+        <v>937</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3524,16 +4268,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>460</v>
-      </c>
-      <c r="D28" t="s">
-        <v>552</v>
+        <v>472</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>702</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>685</v>
+        <v>938</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3541,16 +4285,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s">
-        <v>461</v>
-      </c>
-      <c r="D29" t="s">
-        <v>552</v>
+        <v>473</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>703</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>686</v>
+        <v>939</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3558,16 +4302,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C30" t="s">
-        <v>462</v>
-      </c>
-      <c r="D30" t="s">
-        <v>552</v>
+        <v>474</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>704</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>687</v>
+        <v>940</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3575,16 +4319,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>463</v>
-      </c>
-      <c r="D31" t="s">
-        <v>552</v>
+        <v>475</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>705</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>688</v>
+        <v>941</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3592,16 +4336,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="C32" t="s">
-        <v>464</v>
-      </c>
-      <c r="D32" t="s">
-        <v>552</v>
+        <v>476</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>689</v>
+        <v>942</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3609,16 +4353,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C33" t="s">
-        <v>465</v>
-      </c>
-      <c r="D33" t="s">
-        <v>552</v>
+        <v>477</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>707</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>690</v>
+        <v>943</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3626,16 +4370,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C34" t="s">
-        <v>466</v>
-      </c>
-      <c r="D34" t="s">
-        <v>552</v>
+        <v>477</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>708</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>691</v>
+        <v>944</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3643,16 +4387,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
-        <v>466</v>
-      </c>
-      <c r="D35" t="s">
-        <v>552</v>
+        <v>478</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>709</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>692</v>
+        <v>945</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3660,16 +4404,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C36" t="s">
-        <v>467</v>
-      </c>
-      <c r="D36" t="s">
-        <v>552</v>
+        <v>479</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>710</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>693</v>
+        <v>946</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3677,16 +4421,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C37" t="s">
-        <v>468</v>
-      </c>
-      <c r="D37" t="s">
-        <v>552</v>
+        <v>480</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>711</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>694</v>
+        <v>947</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3694,16 +4438,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C38" t="s">
-        <v>469</v>
-      </c>
-      <c r="D38" t="s">
-        <v>552</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>695</v>
+        <v>481</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E38" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3711,16 +4455,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C39" t="s">
-        <v>470</v>
-      </c>
-      <c r="D39" t="s">
-        <v>552</v>
+        <v>482</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>713</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>696</v>
+        <v>948</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3728,16 +4472,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C40" t="s">
-        <v>471</v>
-      </c>
-      <c r="D40" t="s">
-        <v>552</v>
+        <v>483</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>714</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>697</v>
+        <v>949</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3745,16 +4489,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C41" t="s">
-        <v>472</v>
-      </c>
-      <c r="D41" t="s">
-        <v>552</v>
+        <v>484</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>698</v>
+        <v>950</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3762,16 +4506,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C42" t="s">
-        <v>473</v>
-      </c>
-      <c r="D42" t="s">
-        <v>552</v>
+        <v>485</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>716</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>699</v>
+        <v>951</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3779,16 +4523,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C43" t="s">
-        <v>474</v>
-      </c>
-      <c r="D43" t="s">
-        <v>552</v>
+        <v>486</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>717</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>700</v>
+        <v>952</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3796,16 +4540,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C44" t="s">
-        <v>474</v>
-      </c>
-      <c r="D44" t="s">
-        <v>552</v>
+        <v>486</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>701</v>
+        <v>953</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3813,16 +4557,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C45" t="s">
-        <v>474</v>
-      </c>
-      <c r="D45" t="s">
-        <v>552</v>
+        <v>486</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>719</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>702</v>
+        <v>954</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3830,16 +4574,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C46" t="s">
-        <v>474</v>
-      </c>
-      <c r="D46" t="s">
-        <v>552</v>
+        <v>486</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>720</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>703</v>
+        <v>955</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3847,16 +4591,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C47" t="s">
-        <v>475</v>
-      </c>
-      <c r="D47" t="s">
-        <v>552</v>
+        <v>487</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>721</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>704</v>
+        <v>956</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3864,16 +4608,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C48" t="s">
-        <v>476</v>
-      </c>
-      <c r="D48" t="s">
-        <v>552</v>
+        <v>488</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>722</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>705</v>
+        <v>956</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3881,16 +4625,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C49" t="s">
-        <v>477</v>
-      </c>
-      <c r="D49" t="s">
-        <v>552</v>
+        <v>489</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>723</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>706</v>
+        <v>957</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3898,16 +4642,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C50" t="s">
-        <v>478</v>
-      </c>
-      <c r="D50" t="s">
-        <v>552</v>
+        <v>490</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>724</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>707</v>
+        <v>958</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3915,16 +4659,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C51" t="s">
-        <v>479</v>
-      </c>
-      <c r="D51" t="s">
-        <v>552</v>
+        <v>491</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>725</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>708</v>
+        <v>959</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3932,16 +4676,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C52" t="s">
-        <v>480</v>
-      </c>
-      <c r="D52" t="s">
-        <v>552</v>
+        <v>492</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>726</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>709</v>
+        <v>959</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3949,16 +4693,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C53" t="s">
-        <v>481</v>
-      </c>
-      <c r="D53" t="s">
-        <v>552</v>
+        <v>493</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>727</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>710</v>
+        <v>960</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3966,16 +4710,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C54" t="s">
-        <v>482</v>
-      </c>
-      <c r="D54" t="s">
-        <v>552</v>
+        <v>494</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>728</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>711</v>
+        <v>961</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3983,16 +4727,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C55" t="s">
-        <v>483</v>
-      </c>
-      <c r="D55" t="s">
-        <v>552</v>
+        <v>495</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>729</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>712</v>
+        <v>961</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4000,16 +4744,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C56" t="s">
-        <v>484</v>
-      </c>
-      <c r="D56" t="s">
-        <v>552</v>
+        <v>496</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>730</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>713</v>
+        <v>962</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4017,16 +4761,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C57" t="s">
-        <v>485</v>
-      </c>
-      <c r="D57" t="s">
-        <v>552</v>
+        <v>497</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>731</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>714</v>
+        <v>962</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4034,16 +4778,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C58" t="s">
-        <v>486</v>
-      </c>
-      <c r="D58" t="s">
-        <v>552</v>
+        <v>498</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>732</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>715</v>
+        <v>963</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4051,16 +4795,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C59" t="s">
-        <v>487</v>
-      </c>
-      <c r="D59" t="s">
-        <v>552</v>
+        <v>499</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>733</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>716</v>
+        <v>963</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4068,16 +4812,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C60" t="s">
-        <v>488</v>
-      </c>
-      <c r="D60" t="s">
-        <v>552</v>
+        <v>500</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>734</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>717</v>
+        <v>964</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4085,16 +4829,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C61" t="s">
-        <v>489</v>
-      </c>
-      <c r="D61" t="s">
-        <v>552</v>
+        <v>501</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>735</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>718</v>
+        <v>965</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4102,16 +4846,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C62" t="s">
-        <v>490</v>
-      </c>
-      <c r="D62" t="s">
-        <v>552</v>
+        <v>502</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>736</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>719</v>
+        <v>966</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4119,16 +4863,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C63" t="s">
-        <v>491</v>
-      </c>
-      <c r="D63" t="s">
-        <v>552</v>
+        <v>503</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>737</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>720</v>
+        <v>967</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4136,16 +4880,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C64" t="s">
-        <v>492</v>
-      </c>
-      <c r="D64" t="s">
-        <v>552</v>
+        <v>504</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>721</v>
+        <v>968</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4153,16 +4897,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C65" t="s">
-        <v>493</v>
-      </c>
-      <c r="D65" t="s">
-        <v>552</v>
+        <v>505</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>739</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>722</v>
+        <v>969</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4170,16 +4914,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C66" t="s">
-        <v>494</v>
-      </c>
-      <c r="D66" t="s">
-        <v>552</v>
+        <v>506</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>740</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>723</v>
+        <v>970</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4187,16 +4931,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C67" t="s">
-        <v>495</v>
-      </c>
-      <c r="D67" t="s">
-        <v>552</v>
+        <v>507</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>741</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>724</v>
+        <v>971</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4204,16 +4948,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C68" t="s">
-        <v>496</v>
-      </c>
-      <c r="D68" t="s">
-        <v>552</v>
+        <v>508</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>725</v>
+        <v>972</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4221,16 +4965,16 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C69" t="s">
-        <v>497</v>
-      </c>
-      <c r="D69" t="s">
-        <v>552</v>
+        <v>509</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>743</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>726</v>
+        <v>973</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4238,16 +4982,16 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C70" t="s">
-        <v>498</v>
-      </c>
-      <c r="D70" t="s">
-        <v>552</v>
+        <v>510</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>744</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>727</v>
+        <v>974</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4255,16 +4999,16 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C71" t="s">
-        <v>499</v>
-      </c>
-      <c r="D71" t="s">
-        <v>552</v>
+        <v>511</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>745</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>728</v>
+        <v>975</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4272,16 +5016,16 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C72" t="s">
-        <v>500</v>
-      </c>
-      <c r="D72" t="s">
-        <v>552</v>
+        <v>512</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>746</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>729</v>
+        <v>976</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4289,3008 +5033,3275 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C73" t="s">
-        <v>501</v>
-      </c>
-      <c r="D73" t="s">
-        <v>552</v>
+        <v>513</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>747</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>730</v>
+        <v>977</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C74" t="s">
-        <v>501</v>
-      </c>
-      <c r="D74" t="s">
-        <v>552</v>
+        <v>514</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>748</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>730</v>
+        <v>978</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C75" t="s">
-        <v>502</v>
-      </c>
-      <c r="D75" t="s">
-        <v>552</v>
+        <v>515</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>749</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>731</v>
+        <v>979</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C76" t="s">
-        <v>503</v>
-      </c>
-      <c r="D76" t="s">
-        <v>552</v>
+        <v>516</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>750</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>732</v>
+        <v>980</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C77" t="s">
-        <v>504</v>
-      </c>
-      <c r="D77" t="s">
-        <v>552</v>
+        <v>517</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>751</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>733</v>
+        <v>981</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C78" t="s">
-        <v>505</v>
-      </c>
-      <c r="D78" t="s">
-        <v>552</v>
+        <v>518</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>752</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>734</v>
+        <v>982</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C79" t="s">
-        <v>506</v>
-      </c>
-      <c r="D79" t="s">
-        <v>552</v>
+        <v>519</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>753</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>735</v>
+        <v>983</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C80" t="s">
-        <v>507</v>
-      </c>
-      <c r="D80" t="s">
-        <v>552</v>
+        <v>520</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>754</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>736</v>
+        <v>984</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C81" t="s">
-        <v>508</v>
-      </c>
-      <c r="D81" t="s">
-        <v>552</v>
+        <v>521</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>755</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>737</v>
+        <v>985</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C82" t="s">
-        <v>509</v>
-      </c>
-      <c r="D82" t="s">
-        <v>552</v>
+        <v>522</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>756</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>738</v>
+        <v>986</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C83" t="s">
-        <v>510</v>
-      </c>
-      <c r="D83" t="s">
-        <v>552</v>
+        <v>523</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>757</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>739</v>
+        <v>987</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C84" t="s">
-        <v>511</v>
-      </c>
-      <c r="D84" t="s">
-        <v>552</v>
+        <v>524</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>758</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>740</v>
+        <v>988</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C85" t="s">
-        <v>512</v>
-      </c>
-      <c r="D85" t="s">
-        <v>552</v>
+        <v>525</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>759</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>741</v>
+        <v>989</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C86" t="s">
-        <v>513</v>
-      </c>
-      <c r="D86" t="s">
-        <v>552</v>
+        <v>526</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>760</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>742</v>
+        <v>990</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C87" t="s">
-        <v>514</v>
-      </c>
-      <c r="D87" t="s">
-        <v>552</v>
+        <v>527</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>761</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>743</v>
+        <v>991</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C88" t="s">
-        <v>515</v>
-      </c>
-      <c r="D88" t="s">
-        <v>552</v>
+        <v>528</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>762</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>744</v>
+        <v>992</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C89" t="s">
-        <v>516</v>
-      </c>
-      <c r="D89" t="s">
-        <v>552</v>
+        <v>529</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>763</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>745</v>
+        <v>993</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C90" t="s">
-        <v>517</v>
-      </c>
-      <c r="D90" t="s">
-        <v>552</v>
+        <v>530</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>764</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>746</v>
+        <v>994</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C91" t="s">
-        <v>518</v>
-      </c>
-      <c r="D91" t="s">
-        <v>552</v>
+        <v>531</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>765</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>747</v>
+        <v>995</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C92" t="s">
-        <v>519</v>
-      </c>
-      <c r="D92" t="s">
-        <v>552</v>
+        <v>532</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>766</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>748</v>
+        <v>996</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C93" t="s">
-        <v>520</v>
-      </c>
-      <c r="D93" t="s">
-        <v>552</v>
+        <v>533</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>767</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>749</v>
+        <v>997</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C94" t="s">
-        <v>521</v>
-      </c>
-      <c r="D94" t="s">
-        <v>552</v>
+        <v>534</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>768</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>750</v>
+        <v>998</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C95" t="s">
-        <v>522</v>
-      </c>
-      <c r="D95" t="s">
-        <v>552</v>
+        <v>535</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>769</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>751</v>
+        <v>999</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C96" t="s">
-        <v>523</v>
-      </c>
-      <c r="D96" t="s">
-        <v>552</v>
+        <v>536</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>770</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>752</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C97" t="s">
-        <v>524</v>
-      </c>
-      <c r="D97" t="s">
-        <v>552</v>
+        <v>537</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>771</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>753</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C98" t="s">
-        <v>525</v>
-      </c>
-      <c r="D98" t="s">
-        <v>552</v>
+        <v>538</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>772</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>754</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C99" t="s">
-        <v>526</v>
-      </c>
-      <c r="D99" t="s">
-        <v>552</v>
+        <v>539</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>773</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>755</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C100" t="s">
-        <v>527</v>
-      </c>
-      <c r="D100" t="s">
-        <v>552</v>
+        <v>540</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>774</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>756</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C101" t="s">
-        <v>528</v>
-      </c>
-      <c r="D101" t="s">
-        <v>552</v>
+        <v>541</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>775</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>757</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="C102" t="s">
-        <v>529</v>
-      </c>
-      <c r="D102" t="s">
-        <v>552</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>758</v>
+        <v>542</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E102" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="C103" t="s">
-        <v>530</v>
-      </c>
-      <c r="D103" t="s">
-        <v>552</v>
+        <v>543</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>777</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>759</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C104" t="s">
-        <v>531</v>
-      </c>
-      <c r="D104" t="s">
-        <v>552</v>
+        <v>544</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>778</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>760</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C105" t="s">
-        <v>532</v>
-      </c>
-      <c r="D105" t="s">
-        <v>552</v>
+        <v>545</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>779</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>761</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C106" t="s">
-        <v>533</v>
-      </c>
-      <c r="D106" t="s">
-        <v>552</v>
+        <v>546</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>780</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>762</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C107" t="s">
-        <v>534</v>
-      </c>
-      <c r="D107" t="s">
-        <v>552</v>
+        <v>547</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>763</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C108" t="s">
-        <v>535</v>
-      </c>
-      <c r="D108" t="s">
-        <v>552</v>
+        <v>548</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>782</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>764</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C109" t="s">
-        <v>536</v>
-      </c>
-      <c r="D109" t="s">
-        <v>552</v>
+        <v>549</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>783</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>765</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C110" t="s">
-        <v>537</v>
-      </c>
-      <c r="D110" t="s">
-        <v>552</v>
+        <v>550</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>766</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C111" t="s">
-        <v>538</v>
-      </c>
-      <c r="D111" t="s">
-        <v>552</v>
+        <v>551</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>785</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>767</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C112" t="s">
-        <v>539</v>
-      </c>
-      <c r="D112" t="s">
         <v>552</v>
       </c>
+      <c r="D112" s="2" t="s">
+        <v>786</v>
+      </c>
       <c r="E112" s="2" t="s">
-        <v>768</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C113" t="s">
-        <v>540</v>
-      </c>
-      <c r="D113" t="s">
-        <v>552</v>
+        <v>553</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>787</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>769</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C114" t="s">
-        <v>541</v>
-      </c>
-      <c r="D114" t="s">
-        <v>552</v>
+        <v>554</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>788</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>770</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C115" t="s">
-        <v>542</v>
-      </c>
-      <c r="D115" t="s">
-        <v>552</v>
+        <v>555</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>789</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>771</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C116" t="s">
-        <v>543</v>
-      </c>
-      <c r="D116" t="s">
-        <v>552</v>
+        <v>556</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>790</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>772</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C117" t="s">
-        <v>544</v>
-      </c>
-      <c r="D117" t="s">
-        <v>552</v>
+        <v>557</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>791</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>773</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C118" t="s">
-        <v>545</v>
-      </c>
-      <c r="D118" t="s">
-        <v>552</v>
+        <v>558</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>792</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>774</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C119" t="s">
-        <v>546</v>
-      </c>
-      <c r="D119" t="s">
-        <v>552</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>775</v>
+        <v>559</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="E119" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C120" t="s">
-        <v>547</v>
-      </c>
-      <c r="D120" t="s">
-        <v>552</v>
+        <v>560</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>794</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>776</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>548</v>
-      </c>
-      <c r="D121" t="s">
-        <v>552</v>
+        <v>561</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>795</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>777</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C122" t="s">
-        <v>548</v>
-      </c>
-      <c r="D122" t="s">
-        <v>552</v>
+        <v>562</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>796</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>777</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C123" t="s">
-        <v>549</v>
-      </c>
-      <c r="D123" t="s">
-        <v>552</v>
+        <v>563</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>797</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>778</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C124" t="s">
-        <v>550</v>
-      </c>
-      <c r="D124" t="s">
-        <v>552</v>
+        <v>564</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>798</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>779</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C125" t="s">
-        <v>551</v>
-      </c>
-      <c r="D125" t="s">
-        <v>552</v>
+        <v>565</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>780</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C126" t="s">
-        <v>552</v>
-      </c>
-      <c r="D126" t="s">
-        <v>552</v>
+        <v>566</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>800</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>781</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C127" t="s">
-        <v>553</v>
-      </c>
-      <c r="D127" t="s">
-        <v>552</v>
+        <v>567</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>801</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>782</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C128" t="s">
-        <v>554</v>
-      </c>
-      <c r="D128" t="s">
-        <v>552</v>
+        <v>568</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>783</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C129" t="s">
-        <v>555</v>
-      </c>
-      <c r="D129" t="s">
-        <v>552</v>
+        <v>569</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>784</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C130" t="s">
-        <v>556</v>
-      </c>
-      <c r="D130" t="s">
-        <v>552</v>
+        <v>570</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>804</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>785</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C131" t="s">
-        <v>557</v>
-      </c>
-      <c r="D131" t="s">
-        <v>552</v>
+        <v>571</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>805</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>786</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C132" t="s">
-        <v>558</v>
-      </c>
-      <c r="D132" t="s">
-        <v>552</v>
+        <v>572</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>806</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>787</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C133" t="s">
-        <v>559</v>
-      </c>
-      <c r="D133" t="s">
-        <v>552</v>
+        <v>573</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>807</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>788</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C134" t="s">
-        <v>560</v>
-      </c>
-      <c r="D134" t="s">
-        <v>552</v>
+        <v>574</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>808</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>789</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C135" t="s">
-        <v>561</v>
-      </c>
-      <c r="D135" t="s">
-        <v>552</v>
+        <v>575</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>809</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>790</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C136" t="s">
-        <v>562</v>
-      </c>
-      <c r="D136" t="s">
-        <v>552</v>
+        <v>576</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>810</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>791</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C137" t="s">
-        <v>563</v>
-      </c>
-      <c r="D137" t="s">
-        <v>552</v>
+        <v>577</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>811</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>792</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C138" t="s">
-        <v>564</v>
-      </c>
-      <c r="D138" t="s">
-        <v>552</v>
+        <v>578</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>812</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>793</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C139" t="s">
-        <v>565</v>
-      </c>
-      <c r="D139" t="s">
-        <v>552</v>
+        <v>579</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>813</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>794</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C140" t="s">
-        <v>566</v>
-      </c>
-      <c r="D140" t="s">
-        <v>552</v>
+        <v>580</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>814</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>795</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C141" t="s">
-        <v>567</v>
-      </c>
-      <c r="D141" t="s">
-        <v>552</v>
+        <v>581</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>815</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>796</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C142" t="s">
-        <v>568</v>
-      </c>
-      <c r="D142" t="s">
-        <v>552</v>
+        <v>582</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>797</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C143" t="s">
-        <v>569</v>
-      </c>
-      <c r="D143" t="s">
-        <v>552</v>
+        <v>583</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>798</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C144" t="s">
-        <v>570</v>
-      </c>
-      <c r="D144" t="s">
-        <v>552</v>
+        <v>584</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>818</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>799</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>571</v>
-      </c>
-      <c r="D145" t="s">
-        <v>552</v>
+        <v>585</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>819</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>800</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>572</v>
-      </c>
-      <c r="D146" t="s">
-        <v>552</v>
+        <v>586</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>820</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>801</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>573</v>
-      </c>
-      <c r="D147" t="s">
-        <v>552</v>
+        <v>587</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>821</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>802</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>574</v>
-      </c>
-      <c r="D148" t="s">
-        <v>552</v>
+        <v>588</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>822</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>803</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>575</v>
-      </c>
-      <c r="D149" t="s">
-        <v>552</v>
+        <v>589</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>823</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>804</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C150" t="s">
-        <v>576</v>
-      </c>
-      <c r="D150" t="s">
-        <v>552</v>
+        <v>590</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>824</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>805</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C151" t="s">
-        <v>577</v>
-      </c>
-      <c r="D151" t="s">
-        <v>552</v>
+        <v>591</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>806</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C152" t="s">
-        <v>578</v>
-      </c>
-      <c r="D152" t="s">
-        <v>552</v>
+        <v>592</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>807</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C153" t="s">
-        <v>579</v>
-      </c>
-      <c r="D153" t="s">
-        <v>552</v>
+        <v>593</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>808</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C154" t="s">
-        <v>580</v>
-      </c>
-      <c r="D154" t="s">
-        <v>552</v>
+        <v>594</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>828</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>809</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C155" t="s">
-        <v>581</v>
-      </c>
-      <c r="D155" t="s">
-        <v>552</v>
+        <v>595</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>829</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>810</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C156" t="s">
-        <v>582</v>
-      </c>
-      <c r="D156" t="s">
-        <v>552</v>
+        <v>596</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>830</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>811</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C157" t="s">
-        <v>583</v>
-      </c>
-      <c r="D157" t="s">
-        <v>552</v>
+        <v>597</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>831</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>812</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C158" t="s">
-        <v>583</v>
-      </c>
-      <c r="D158" t="s">
-        <v>552</v>
+        <v>598</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>832</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>812</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C159" t="s">
-        <v>584</v>
-      </c>
-      <c r="D159" t="s">
-        <v>552</v>
+        <v>599</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>833</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>813</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C160" t="s">
-        <v>585</v>
-      </c>
-      <c r="D160" t="s">
-        <v>552</v>
+        <v>600</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>834</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>814</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C161" t="s">
-        <v>586</v>
-      </c>
-      <c r="D161" t="s">
-        <v>552</v>
+        <v>601</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>835</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>815</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C162" t="s">
-        <v>587</v>
-      </c>
-      <c r="D162" t="s">
-        <v>552</v>
+        <v>602</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>836</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>816</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C163" t="s">
-        <v>588</v>
-      </c>
-      <c r="D163" t="s">
-        <v>552</v>
+        <v>603</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>837</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>817</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C164" t="s">
-        <v>589</v>
-      </c>
-      <c r="D164" t="s">
-        <v>552</v>
+        <v>604</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>838</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>818</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C165" t="s">
-        <v>590</v>
-      </c>
-      <c r="D165" t="s">
-        <v>552</v>
+        <v>605</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>819</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C166" t="s">
-        <v>591</v>
-      </c>
-      <c r="D166" t="s">
-        <v>552</v>
+        <v>606</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>840</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>820</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C167" t="s">
-        <v>592</v>
-      </c>
-      <c r="D167" t="s">
-        <v>552</v>
+        <v>607</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>841</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>821</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C168" t="s">
-        <v>552</v>
-      </c>
-      <c r="D168" t="s">
-        <v>552</v>
+        <v>608</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>842</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>822</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C169" t="s">
-        <v>593</v>
-      </c>
-      <c r="D169" t="s">
-        <v>552</v>
+        <v>566</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>843</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>823</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C170" t="s">
-        <v>594</v>
-      </c>
-      <c r="D170" t="s">
-        <v>552</v>
+        <v>609</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>844</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>824</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C171" t="s">
-        <v>595</v>
-      </c>
-      <c r="D171" t="s">
-        <v>552</v>
+        <v>610</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>845</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>825</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C172" t="s">
-        <v>596</v>
-      </c>
-      <c r="D172" t="s">
-        <v>552</v>
+        <v>611</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>846</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>826</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C173" t="s">
-        <v>597</v>
-      </c>
-      <c r="D173" t="s">
-        <v>552</v>
+        <v>612</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>847</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>827</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C174" t="s">
-        <v>598</v>
-      </c>
-      <c r="D174" t="s">
-        <v>552</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>828</v>
+        <v>613</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="E174" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C175" t="s">
-        <v>599</v>
-      </c>
-      <c r="D175" t="s">
-        <v>552</v>
+        <v>614</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>849</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>829</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C176" t="s">
-        <v>600</v>
-      </c>
-      <c r="D176" t="s">
-        <v>552</v>
+        <v>615</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>850</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>830</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C177" t="s">
-        <v>601</v>
-      </c>
-      <c r="D177" t="s">
-        <v>552</v>
+        <v>616</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>851</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>831</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C178" t="s">
-        <v>602</v>
-      </c>
-      <c r="D178" t="s">
-        <v>552</v>
+        <v>617</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>852</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>832</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C179" t="s">
-        <v>603</v>
-      </c>
-      <c r="D179" t="s">
-        <v>552</v>
+        <v>618</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>853</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>833</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C180" t="s">
-        <v>604</v>
-      </c>
-      <c r="D180" t="s">
-        <v>552</v>
+        <v>619</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>854</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>834</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C181" t="s">
-        <v>605</v>
-      </c>
-      <c r="D181" t="s">
-        <v>552</v>
+        <v>620</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>835</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C182" t="s">
-        <v>606</v>
-      </c>
-      <c r="D182" t="s">
-        <v>552</v>
+        <v>621</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>836</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C183" t="s">
-        <v>607</v>
-      </c>
-      <c r="D183" t="s">
-        <v>552</v>
+        <v>622</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>857</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>837</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C184" t="s">
-        <v>608</v>
-      </c>
-      <c r="D184" t="s">
-        <v>552</v>
+        <v>623</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>858</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>838</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C185" t="s">
-        <v>609</v>
-      </c>
-      <c r="D185" t="s">
-        <v>552</v>
+        <v>624</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>859</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>839</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C186" t="s">
-        <v>610</v>
-      </c>
-      <c r="D186" t="s">
-        <v>552</v>
+        <v>625</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>860</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>840</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C187" t="s">
-        <v>611</v>
-      </c>
-      <c r="D187" t="s">
-        <v>552</v>
+        <v>626</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>861</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>841</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C188" t="s">
-        <v>612</v>
-      </c>
-      <c r="D188" t="s">
-        <v>552</v>
+        <v>627</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>862</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>842</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C189" t="s">
-        <v>613</v>
-      </c>
-      <c r="D189" t="s">
-        <v>552</v>
+        <v>628</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>863</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>843</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C190" t="s">
-        <v>614</v>
-      </c>
-      <c r="D190" t="s">
-        <v>552</v>
+        <v>629</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>864</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>844</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C191" t="s">
-        <v>615</v>
-      </c>
-      <c r="D191" t="s">
-        <v>552</v>
+        <v>630</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>865</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>845</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C192" t="s">
-        <v>616</v>
-      </c>
-      <c r="D192" t="s">
-        <v>552</v>
+        <v>631</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>866</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>846</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C193" t="s">
-        <v>617</v>
-      </c>
-      <c r="D193" t="s">
-        <v>552</v>
+        <v>632</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>867</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>847</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C194" t="s">
-        <v>618</v>
-      </c>
-      <c r="D194" t="s">
-        <v>552</v>
+        <v>633</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>868</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>848</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C195" t="s">
-        <v>619</v>
-      </c>
-      <c r="D195" t="s">
-        <v>552</v>
+        <v>634</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>869</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>849</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C196" t="s">
-        <v>620</v>
-      </c>
-      <c r="D196" t="s">
-        <v>552</v>
+        <v>635</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>870</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>850</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C197" t="s">
-        <v>621</v>
-      </c>
-      <c r="D197" t="s">
-        <v>552</v>
+        <v>636</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>871</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>851</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C198" t="s">
-        <v>622</v>
-      </c>
-      <c r="D198" t="s">
-        <v>552</v>
+        <v>637</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>872</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>852</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C199" t="s">
-        <v>623</v>
-      </c>
-      <c r="D199" t="s">
-        <v>552</v>
+        <v>638</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>873</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>853</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C200" t="s">
-        <v>624</v>
-      </c>
-      <c r="D200" t="s">
-        <v>552</v>
+        <v>639</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>874</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>854</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C201" t="s">
-        <v>625</v>
-      </c>
-      <c r="D201" t="s">
-        <v>552</v>
+        <v>640</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>875</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>855</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C202" t="s">
-        <v>626</v>
-      </c>
-      <c r="D202" t="s">
-        <v>552</v>
+        <v>641</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>876</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>856</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C203" t="s">
-        <v>627</v>
-      </c>
-      <c r="D203" t="s">
-        <v>552</v>
+        <v>642</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>877</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>857</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C204" t="s">
-        <v>628</v>
-      </c>
-      <c r="D204" t="s">
-        <v>552</v>
+        <v>643</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>878</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>858</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C205" t="s">
-        <v>629</v>
-      </c>
-      <c r="D205" t="s">
-        <v>552</v>
+        <v>644</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>879</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>859</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C206" t="s">
-        <v>630</v>
-      </c>
-      <c r="D206" t="s">
-        <v>552</v>
+        <v>645</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>880</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>860</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C207" t="s">
-        <v>631</v>
-      </c>
-      <c r="D207" t="s">
-        <v>552</v>
+        <v>646</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>881</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>861</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C208" t="s">
-        <v>632</v>
-      </c>
-      <c r="D208" t="s">
-        <v>552</v>
+        <v>647</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>882</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>862</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C209" t="s">
-        <v>632</v>
-      </c>
-      <c r="D209" t="s">
-        <v>552</v>
+        <v>648</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>883</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>863</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C210" t="s">
-        <v>633</v>
-      </c>
-      <c r="D210" t="s">
-        <v>552</v>
+        <v>649</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>884</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>864</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C211" t="s">
-        <v>634</v>
-      </c>
-      <c r="D211" t="s">
-        <v>552</v>
+        <v>649</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>885</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>865</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C212" t="s">
-        <v>635</v>
-      </c>
-      <c r="D212" t="s">
-        <v>552</v>
+        <v>650</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>886</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>866</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C213" t="s">
-        <v>636</v>
-      </c>
-      <c r="D213" t="s">
-        <v>552</v>
+        <v>651</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>887</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>867</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C214" t="s">
-        <v>637</v>
-      </c>
-      <c r="D214" t="s">
-        <v>552</v>
+        <v>652</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>888</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>868</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C215" t="s">
-        <v>638</v>
-      </c>
-      <c r="D215" t="s">
-        <v>552</v>
+        <v>653</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>889</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>869</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C216" t="s">
-        <v>639</v>
-      </c>
-      <c r="D216" t="s">
-        <v>552</v>
+        <v>654</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>890</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>870</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="C217" t="s">
-        <v>640</v>
-      </c>
-      <c r="D217" t="s">
-        <v>552</v>
+        <v>655</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>891</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>871</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C218" t="s">
-        <v>641</v>
-      </c>
-      <c r="D218" t="s">
-        <v>552</v>
+        <v>656</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>892</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>872</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="C219" t="s">
-        <v>642</v>
-      </c>
-      <c r="D219" t="s">
-        <v>552</v>
+        <v>657</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>893</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>873</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="C220" t="s">
-        <v>643</v>
-      </c>
-      <c r="D220" t="s">
-        <v>552</v>
+        <v>658</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>894</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>874</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C221" t="s">
-        <v>644</v>
-      </c>
-      <c r="D221" t="s">
-        <v>552</v>
+        <v>659</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>895</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>875</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="C222" t="s">
-        <v>645</v>
-      </c>
-      <c r="D222" t="s">
-        <v>552</v>
+        <v>660</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>896</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>876</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="C223" t="s">
-        <v>646</v>
-      </c>
-      <c r="D223" t="s">
-        <v>552</v>
+        <v>661</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>897</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>877</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>244</v>
+        <v>435</v>
       </c>
       <c r="C224" t="s">
-        <v>647</v>
-      </c>
-      <c r="D224" t="s">
-        <v>552</v>
+        <v>662</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>898</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>878</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C225" t="s">
-        <v>648</v>
-      </c>
-      <c r="D225" t="s">
-        <v>552</v>
+        <v>663</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>899</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>879</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>426</v>
+        <v>249</v>
       </c>
       <c r="C226" t="s">
-        <v>649</v>
-      </c>
-      <c r="D226" t="s">
-        <v>552</v>
+        <v>664</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>900</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>880</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>650</v>
-      </c>
-      <c r="D227" t="s">
-        <v>552</v>
+        <v>665</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>901</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>881</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C228" t="s">
-        <v>651</v>
-      </c>
-      <c r="D228" t="s">
-        <v>552</v>
+        <v>666</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>902</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>882</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C229" t="s">
-        <v>652</v>
-      </c>
-      <c r="D229" t="s">
-        <v>552</v>
+        <v>667</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>903</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>883</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C230" t="s">
-        <v>653</v>
-      </c>
-      <c r="D230" t="s">
-        <v>552</v>
+        <v>668</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>904</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>884</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C231" t="s">
-        <v>654</v>
-      </c>
-      <c r="D231" t="s">
-        <v>552</v>
+        <v>669</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>905</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>885</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C232" t="s">
-        <v>655</v>
-      </c>
-      <c r="D232" t="s">
-        <v>552</v>
+        <v>670</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>906</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>886</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C233" t="s">
-        <v>656</v>
-      </c>
-      <c r="D233" t="s">
-        <v>552</v>
+        <v>671</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>907</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>887</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C234" t="s">
-        <v>657</v>
-      </c>
-      <c r="D234" t="s">
-        <v>552</v>
+        <v>672</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>908</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>888</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C235" t="s">
-        <v>658</v>
-      </c>
-      <c r="D235" t="s">
-        <v>552</v>
+        <v>673</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>909</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>889</v>
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>238</v>
+      </c>
+      <c r="B236" t="s">
+        <v>446</v>
+      </c>
+      <c r="C236" t="s">
+        <v>674</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="E236" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>239</v>
+      </c>
+      <c r="B237" t="s">
+        <v>447</v>
+      </c>
+      <c r="C237" t="s">
+        <v>675</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>1137</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
-    <hyperlink ref="E22" r:id="rId21"/>
-    <hyperlink ref="E23" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23"/>
-    <hyperlink ref="E25" r:id="rId24"/>
-    <hyperlink ref="E26" r:id="rId25"/>
-    <hyperlink ref="E27" r:id="rId26"/>
-    <hyperlink ref="E28" r:id="rId27"/>
-    <hyperlink ref="E29" r:id="rId28"/>
-    <hyperlink ref="E30" r:id="rId29"/>
-    <hyperlink ref="E31" r:id="rId30"/>
-    <hyperlink ref="E32" r:id="rId31"/>
-    <hyperlink ref="E33" r:id="rId32"/>
-    <hyperlink ref="E34" r:id="rId33"/>
-    <hyperlink ref="E35" r:id="rId34"/>
-    <hyperlink ref="E36" r:id="rId35"/>
-    <hyperlink ref="E37" r:id="rId36"/>
-    <hyperlink ref="E38" r:id="rId37"/>
-    <hyperlink ref="E39" r:id="rId38"/>
-    <hyperlink ref="E40" r:id="rId39"/>
-    <hyperlink ref="E41" r:id="rId40"/>
-    <hyperlink ref="E42" r:id="rId41"/>
-    <hyperlink ref="E43" r:id="rId42"/>
-    <hyperlink ref="E44" r:id="rId43"/>
-    <hyperlink ref="E45" r:id="rId44"/>
-    <hyperlink ref="E46" r:id="rId45"/>
-    <hyperlink ref="E47" r:id="rId46"/>
-    <hyperlink ref="E48" r:id="rId47"/>
-    <hyperlink ref="E49" r:id="rId48"/>
-    <hyperlink ref="E50" r:id="rId49"/>
-    <hyperlink ref="E51" r:id="rId50"/>
-    <hyperlink ref="E52" r:id="rId51"/>
-    <hyperlink ref="E53" r:id="rId52"/>
-    <hyperlink ref="E54" r:id="rId53"/>
-    <hyperlink ref="E55" r:id="rId54"/>
-    <hyperlink ref="E56" r:id="rId55"/>
-    <hyperlink ref="E57" r:id="rId56"/>
-    <hyperlink ref="E58" r:id="rId57"/>
-    <hyperlink ref="E59" r:id="rId58"/>
-    <hyperlink ref="E60" r:id="rId59"/>
-    <hyperlink ref="E61" r:id="rId60"/>
-    <hyperlink ref="E62" r:id="rId61"/>
-    <hyperlink ref="E63" r:id="rId62"/>
-    <hyperlink ref="E64" r:id="rId63"/>
-    <hyperlink ref="E65" r:id="rId64"/>
-    <hyperlink ref="E66" r:id="rId65"/>
-    <hyperlink ref="E67" r:id="rId66"/>
-    <hyperlink ref="E68" r:id="rId67"/>
-    <hyperlink ref="E69" r:id="rId68"/>
-    <hyperlink ref="E70" r:id="rId69"/>
-    <hyperlink ref="E71" r:id="rId70"/>
-    <hyperlink ref="E72" r:id="rId71"/>
-    <hyperlink ref="E73" r:id="rId72"/>
-    <hyperlink ref="E74" r:id="rId73"/>
-    <hyperlink ref="E75" r:id="rId74"/>
-    <hyperlink ref="E76" r:id="rId75"/>
-    <hyperlink ref="E77" r:id="rId76"/>
-    <hyperlink ref="E78" r:id="rId77"/>
-    <hyperlink ref="E79" r:id="rId78"/>
-    <hyperlink ref="E80" r:id="rId79"/>
-    <hyperlink ref="E81" r:id="rId80"/>
-    <hyperlink ref="E82" r:id="rId81"/>
-    <hyperlink ref="E83" r:id="rId82"/>
-    <hyperlink ref="E84" r:id="rId83"/>
-    <hyperlink ref="E85" r:id="rId84"/>
-    <hyperlink ref="E86" r:id="rId85"/>
-    <hyperlink ref="E87" r:id="rId86"/>
-    <hyperlink ref="E88" r:id="rId87"/>
-    <hyperlink ref="E89" r:id="rId88"/>
-    <hyperlink ref="E90" r:id="rId89"/>
-    <hyperlink ref="E91" r:id="rId90"/>
-    <hyperlink ref="E92" r:id="rId91"/>
-    <hyperlink ref="E93" r:id="rId92"/>
-    <hyperlink ref="E94" r:id="rId93"/>
-    <hyperlink ref="E95" r:id="rId94"/>
-    <hyperlink ref="E96" r:id="rId95"/>
-    <hyperlink ref="E97" r:id="rId96"/>
-    <hyperlink ref="E98" r:id="rId97"/>
-    <hyperlink ref="E99" r:id="rId98"/>
-    <hyperlink ref="E100" r:id="rId99"/>
-    <hyperlink ref="E101" r:id="rId100"/>
-    <hyperlink ref="E102" r:id="rId101"/>
-    <hyperlink ref="E103" r:id="rId102"/>
-    <hyperlink ref="E104" r:id="rId103"/>
-    <hyperlink ref="E105" r:id="rId104"/>
-    <hyperlink ref="E106" r:id="rId105"/>
-    <hyperlink ref="E107" r:id="rId106"/>
-    <hyperlink ref="E108" r:id="rId107"/>
-    <hyperlink ref="E109" r:id="rId108"/>
-    <hyperlink ref="E110" r:id="rId109"/>
-    <hyperlink ref="E111" r:id="rId110"/>
-    <hyperlink ref="E112" r:id="rId111"/>
-    <hyperlink ref="E113" r:id="rId112"/>
-    <hyperlink ref="E114" r:id="rId113"/>
-    <hyperlink ref="E115" r:id="rId114"/>
-    <hyperlink ref="E116" r:id="rId115"/>
-    <hyperlink ref="E117" r:id="rId116"/>
-    <hyperlink ref="E118" r:id="rId117"/>
-    <hyperlink ref="E119" r:id="rId118"/>
-    <hyperlink ref="E120" r:id="rId119"/>
-    <hyperlink ref="E121" r:id="rId120"/>
-    <hyperlink ref="E122" r:id="rId121"/>
-    <hyperlink ref="E123" r:id="rId122"/>
-    <hyperlink ref="E124" r:id="rId123"/>
-    <hyperlink ref="E125" r:id="rId124"/>
-    <hyperlink ref="E126" r:id="rId125"/>
-    <hyperlink ref="E127" r:id="rId126"/>
-    <hyperlink ref="E128" r:id="rId127"/>
-    <hyperlink ref="E129" r:id="rId128"/>
-    <hyperlink ref="E130" r:id="rId129"/>
-    <hyperlink ref="E131" r:id="rId130"/>
-    <hyperlink ref="E132" r:id="rId131"/>
-    <hyperlink ref="E133" r:id="rId132"/>
-    <hyperlink ref="E134" r:id="rId133"/>
-    <hyperlink ref="E135" r:id="rId134"/>
-    <hyperlink ref="E136" r:id="rId135"/>
-    <hyperlink ref="E137" r:id="rId136"/>
-    <hyperlink ref="E138" r:id="rId137"/>
-    <hyperlink ref="E139" r:id="rId138"/>
-    <hyperlink ref="E140" r:id="rId139"/>
-    <hyperlink ref="E141" r:id="rId140"/>
-    <hyperlink ref="E142" r:id="rId141"/>
-    <hyperlink ref="E143" r:id="rId142"/>
-    <hyperlink ref="E144" r:id="rId143"/>
-    <hyperlink ref="E145" r:id="rId144"/>
-    <hyperlink ref="E146" r:id="rId145"/>
-    <hyperlink ref="E147" r:id="rId146"/>
-    <hyperlink ref="E148" r:id="rId147"/>
-    <hyperlink ref="E149" r:id="rId148"/>
-    <hyperlink ref="E150" r:id="rId149"/>
-    <hyperlink ref="E151" r:id="rId150"/>
-    <hyperlink ref="E152" r:id="rId151"/>
-    <hyperlink ref="E153" r:id="rId152"/>
-    <hyperlink ref="E154" r:id="rId153"/>
-    <hyperlink ref="E155" r:id="rId154"/>
-    <hyperlink ref="E156" r:id="rId155"/>
-    <hyperlink ref="E157" r:id="rId156"/>
-    <hyperlink ref="E158" r:id="rId157"/>
-    <hyperlink ref="E159" r:id="rId158"/>
-    <hyperlink ref="E160" r:id="rId159"/>
-    <hyperlink ref="E161" r:id="rId160"/>
-    <hyperlink ref="E162" r:id="rId161"/>
-    <hyperlink ref="E163" r:id="rId162"/>
-    <hyperlink ref="E164" r:id="rId163"/>
-    <hyperlink ref="E165" r:id="rId164"/>
-    <hyperlink ref="E166" r:id="rId165"/>
-    <hyperlink ref="E167" r:id="rId166"/>
-    <hyperlink ref="E168" r:id="rId167"/>
-    <hyperlink ref="E169" r:id="rId168"/>
-    <hyperlink ref="E170" r:id="rId169"/>
-    <hyperlink ref="E171" r:id="rId170"/>
-    <hyperlink ref="E172" r:id="rId171"/>
-    <hyperlink ref="E173" r:id="rId172"/>
-    <hyperlink ref="E174" r:id="rId173"/>
-    <hyperlink ref="E175" r:id="rId174"/>
-    <hyperlink ref="E176" r:id="rId175"/>
-    <hyperlink ref="E177" r:id="rId176"/>
-    <hyperlink ref="E178" r:id="rId177"/>
-    <hyperlink ref="E179" r:id="rId178"/>
-    <hyperlink ref="E180" r:id="rId179"/>
-    <hyperlink ref="E181" r:id="rId180"/>
-    <hyperlink ref="E182" r:id="rId181"/>
-    <hyperlink ref="E183" r:id="rId182"/>
-    <hyperlink ref="E184" r:id="rId183"/>
-    <hyperlink ref="E185" r:id="rId184"/>
-    <hyperlink ref="E186" r:id="rId185"/>
-    <hyperlink ref="E187" r:id="rId186"/>
-    <hyperlink ref="E188" r:id="rId187"/>
-    <hyperlink ref="E189" r:id="rId188"/>
-    <hyperlink ref="E190" r:id="rId189"/>
-    <hyperlink ref="E191" r:id="rId190"/>
-    <hyperlink ref="E192" r:id="rId191"/>
-    <hyperlink ref="E193" r:id="rId192"/>
-    <hyperlink ref="E194" r:id="rId193"/>
-    <hyperlink ref="E195" r:id="rId194"/>
-    <hyperlink ref="E196" r:id="rId195"/>
-    <hyperlink ref="E197" r:id="rId196"/>
-    <hyperlink ref="E198" r:id="rId197"/>
-    <hyperlink ref="E199" r:id="rId198"/>
-    <hyperlink ref="E200" r:id="rId199"/>
-    <hyperlink ref="E201" r:id="rId200"/>
-    <hyperlink ref="E202" r:id="rId201"/>
-    <hyperlink ref="E203" r:id="rId202"/>
-    <hyperlink ref="E204" r:id="rId203"/>
-    <hyperlink ref="E205" r:id="rId204"/>
-    <hyperlink ref="E206" r:id="rId205"/>
-    <hyperlink ref="E207" r:id="rId206"/>
-    <hyperlink ref="E208" r:id="rId207"/>
-    <hyperlink ref="E209" r:id="rId208"/>
-    <hyperlink ref="E210" r:id="rId209"/>
-    <hyperlink ref="E211" r:id="rId210"/>
-    <hyperlink ref="E212" r:id="rId211"/>
-    <hyperlink ref="E213" r:id="rId212"/>
-    <hyperlink ref="E214" r:id="rId213"/>
-    <hyperlink ref="E215" r:id="rId214"/>
-    <hyperlink ref="E216" r:id="rId215"/>
-    <hyperlink ref="E217" r:id="rId216"/>
-    <hyperlink ref="E218" r:id="rId217"/>
-    <hyperlink ref="E219" r:id="rId218"/>
-    <hyperlink ref="E220" r:id="rId219"/>
-    <hyperlink ref="E221" r:id="rId220"/>
-    <hyperlink ref="E222" r:id="rId221"/>
-    <hyperlink ref="E223" r:id="rId222"/>
-    <hyperlink ref="E224" r:id="rId223"/>
-    <hyperlink ref="E225" r:id="rId224"/>
-    <hyperlink ref="E226" r:id="rId225"/>
-    <hyperlink ref="E227" r:id="rId226"/>
-    <hyperlink ref="E228" r:id="rId227"/>
-    <hyperlink ref="E229" r:id="rId228"/>
-    <hyperlink ref="E230" r:id="rId229"/>
-    <hyperlink ref="E231" r:id="rId230"/>
-    <hyperlink ref="E232" r:id="rId231"/>
-    <hyperlink ref="E233" r:id="rId232"/>
-    <hyperlink ref="E234" r:id="rId233"/>
-    <hyperlink ref="E235" r:id="rId234"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId10"/>
+    <hyperlink ref="D7" r:id="rId11"/>
+    <hyperlink ref="E7" r:id="rId12"/>
+    <hyperlink ref="D8" r:id="rId13"/>
+    <hyperlink ref="E8" r:id="rId14"/>
+    <hyperlink ref="D9" r:id="rId15"/>
+    <hyperlink ref="E9" r:id="rId16"/>
+    <hyperlink ref="D10" r:id="rId17"/>
+    <hyperlink ref="E10" r:id="rId18"/>
+    <hyperlink ref="D11" r:id="rId19"/>
+    <hyperlink ref="E11" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="E12" r:id="rId22"/>
+    <hyperlink ref="D13" r:id="rId23"/>
+    <hyperlink ref="E13" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="E14" r:id="rId26"/>
+    <hyperlink ref="D15" r:id="rId27"/>
+    <hyperlink ref="E15" r:id="rId28"/>
+    <hyperlink ref="D16" r:id="rId29"/>
+    <hyperlink ref="E16" r:id="rId30"/>
+    <hyperlink ref="D17" r:id="rId31"/>
+    <hyperlink ref="E17" r:id="rId32"/>
+    <hyperlink ref="D18" r:id="rId33"/>
+    <hyperlink ref="E18" r:id="rId34"/>
+    <hyperlink ref="D19" r:id="rId35"/>
+    <hyperlink ref="E19" r:id="rId36"/>
+    <hyperlink ref="D20" r:id="rId37"/>
+    <hyperlink ref="E20" r:id="rId38"/>
+    <hyperlink ref="D21" r:id="rId39"/>
+    <hyperlink ref="E21" r:id="rId40"/>
+    <hyperlink ref="D22" r:id="rId41"/>
+    <hyperlink ref="E22" r:id="rId42"/>
+    <hyperlink ref="D23" r:id="rId43"/>
+    <hyperlink ref="E23" r:id="rId44"/>
+    <hyperlink ref="D24" r:id="rId45"/>
+    <hyperlink ref="E24" r:id="rId46"/>
+    <hyperlink ref="D25" r:id="rId47"/>
+    <hyperlink ref="E25" r:id="rId48"/>
+    <hyperlink ref="D26" r:id="rId49"/>
+    <hyperlink ref="E26" r:id="rId50"/>
+    <hyperlink ref="D27" r:id="rId51"/>
+    <hyperlink ref="E27" r:id="rId52"/>
+    <hyperlink ref="D28" r:id="rId53"/>
+    <hyperlink ref="E28" r:id="rId54"/>
+    <hyperlink ref="D29" r:id="rId55"/>
+    <hyperlink ref="E29" r:id="rId56"/>
+    <hyperlink ref="D30" r:id="rId57"/>
+    <hyperlink ref="E30" r:id="rId58"/>
+    <hyperlink ref="D31" r:id="rId59"/>
+    <hyperlink ref="E31" r:id="rId60"/>
+    <hyperlink ref="D32" r:id="rId61"/>
+    <hyperlink ref="E32" r:id="rId62"/>
+    <hyperlink ref="D33" r:id="rId63"/>
+    <hyperlink ref="E33" r:id="rId64"/>
+    <hyperlink ref="D34" r:id="rId65"/>
+    <hyperlink ref="E34" r:id="rId66"/>
+    <hyperlink ref="D35" r:id="rId67"/>
+    <hyperlink ref="E35" r:id="rId68"/>
+    <hyperlink ref="D36" r:id="rId69"/>
+    <hyperlink ref="E36" r:id="rId70"/>
+    <hyperlink ref="D37" r:id="rId71"/>
+    <hyperlink ref="E37" r:id="rId72"/>
+    <hyperlink ref="D38" r:id="rId73"/>
+    <hyperlink ref="D39" r:id="rId74"/>
+    <hyperlink ref="E39" r:id="rId75"/>
+    <hyperlink ref="D40" r:id="rId76"/>
+    <hyperlink ref="E40" r:id="rId77"/>
+    <hyperlink ref="D41" r:id="rId78"/>
+    <hyperlink ref="E41" r:id="rId79"/>
+    <hyperlink ref="D42" r:id="rId80"/>
+    <hyperlink ref="E42" r:id="rId81"/>
+    <hyperlink ref="D43" r:id="rId82"/>
+    <hyperlink ref="E43" r:id="rId83"/>
+    <hyperlink ref="D44" r:id="rId84"/>
+    <hyperlink ref="E44" r:id="rId85"/>
+    <hyperlink ref="D45" r:id="rId86"/>
+    <hyperlink ref="E45" r:id="rId87"/>
+    <hyperlink ref="D46" r:id="rId88"/>
+    <hyperlink ref="E46" r:id="rId89"/>
+    <hyperlink ref="D47" r:id="rId90"/>
+    <hyperlink ref="E47" r:id="rId91"/>
+    <hyperlink ref="D48" r:id="rId92"/>
+    <hyperlink ref="E48" r:id="rId93"/>
+    <hyperlink ref="D49" r:id="rId94"/>
+    <hyperlink ref="E49" r:id="rId95"/>
+    <hyperlink ref="D50" r:id="rId96"/>
+    <hyperlink ref="E50" r:id="rId97"/>
+    <hyperlink ref="D51" r:id="rId98"/>
+    <hyperlink ref="E51" r:id="rId99"/>
+    <hyperlink ref="D52" r:id="rId100"/>
+    <hyperlink ref="E52" r:id="rId101"/>
+    <hyperlink ref="D53" r:id="rId102"/>
+    <hyperlink ref="E53" r:id="rId103"/>
+    <hyperlink ref="D54" r:id="rId104"/>
+    <hyperlink ref="E54" r:id="rId105"/>
+    <hyperlink ref="D55" r:id="rId106"/>
+    <hyperlink ref="E55" r:id="rId107"/>
+    <hyperlink ref="D56" r:id="rId108"/>
+    <hyperlink ref="E56" r:id="rId109"/>
+    <hyperlink ref="D57" r:id="rId110"/>
+    <hyperlink ref="E57" r:id="rId111"/>
+    <hyperlink ref="D58" r:id="rId112"/>
+    <hyperlink ref="E58" r:id="rId113"/>
+    <hyperlink ref="D59" r:id="rId114"/>
+    <hyperlink ref="E59" r:id="rId115"/>
+    <hyperlink ref="D60" r:id="rId116"/>
+    <hyperlink ref="E60" r:id="rId117"/>
+    <hyperlink ref="D61" r:id="rId118"/>
+    <hyperlink ref="E61" r:id="rId119"/>
+    <hyperlink ref="D62" r:id="rId120"/>
+    <hyperlink ref="E62" r:id="rId121"/>
+    <hyperlink ref="D63" r:id="rId122"/>
+    <hyperlink ref="E63" r:id="rId123"/>
+    <hyperlink ref="D64" r:id="rId124"/>
+    <hyperlink ref="E64" r:id="rId125"/>
+    <hyperlink ref="D65" r:id="rId126"/>
+    <hyperlink ref="E65" r:id="rId127"/>
+    <hyperlink ref="D66" r:id="rId128"/>
+    <hyperlink ref="E66" r:id="rId129"/>
+    <hyperlink ref="D67" r:id="rId130"/>
+    <hyperlink ref="E67" r:id="rId131"/>
+    <hyperlink ref="D68" r:id="rId132"/>
+    <hyperlink ref="E68" r:id="rId133"/>
+    <hyperlink ref="D69" r:id="rId134"/>
+    <hyperlink ref="E69" r:id="rId135"/>
+    <hyperlink ref="D70" r:id="rId136"/>
+    <hyperlink ref="E70" r:id="rId137"/>
+    <hyperlink ref="D71" r:id="rId138"/>
+    <hyperlink ref="E71" r:id="rId139"/>
+    <hyperlink ref="D72" r:id="rId140"/>
+    <hyperlink ref="E72" r:id="rId141"/>
+    <hyperlink ref="D73" r:id="rId142"/>
+    <hyperlink ref="E73" r:id="rId143"/>
+    <hyperlink ref="D74" r:id="rId144"/>
+    <hyperlink ref="E74" r:id="rId145"/>
+    <hyperlink ref="D75" r:id="rId146"/>
+    <hyperlink ref="E75" r:id="rId147"/>
+    <hyperlink ref="D76" r:id="rId148"/>
+    <hyperlink ref="E76" r:id="rId149"/>
+    <hyperlink ref="D77" r:id="rId150"/>
+    <hyperlink ref="E77" r:id="rId151"/>
+    <hyperlink ref="D78" r:id="rId152"/>
+    <hyperlink ref="E78" r:id="rId153"/>
+    <hyperlink ref="D79" r:id="rId154"/>
+    <hyperlink ref="E79" r:id="rId155"/>
+    <hyperlink ref="D80" r:id="rId156"/>
+    <hyperlink ref="E80" r:id="rId157"/>
+    <hyperlink ref="D81" r:id="rId158"/>
+    <hyperlink ref="E81" r:id="rId159"/>
+    <hyperlink ref="D82" r:id="rId160"/>
+    <hyperlink ref="E82" r:id="rId161"/>
+    <hyperlink ref="D83" r:id="rId162"/>
+    <hyperlink ref="E83" r:id="rId163"/>
+    <hyperlink ref="D84" r:id="rId164"/>
+    <hyperlink ref="E84" r:id="rId165"/>
+    <hyperlink ref="D85" r:id="rId166"/>
+    <hyperlink ref="E85" r:id="rId167"/>
+    <hyperlink ref="D86" r:id="rId168"/>
+    <hyperlink ref="E86" r:id="rId169"/>
+    <hyperlink ref="D87" r:id="rId170"/>
+    <hyperlink ref="E87" r:id="rId171"/>
+    <hyperlink ref="D88" r:id="rId172"/>
+    <hyperlink ref="E88" r:id="rId173"/>
+    <hyperlink ref="D89" r:id="rId174"/>
+    <hyperlink ref="E89" r:id="rId175"/>
+    <hyperlink ref="D90" r:id="rId176"/>
+    <hyperlink ref="E90" r:id="rId177"/>
+    <hyperlink ref="D91" r:id="rId178"/>
+    <hyperlink ref="E91" r:id="rId179"/>
+    <hyperlink ref="D92" r:id="rId180"/>
+    <hyperlink ref="E92" r:id="rId181"/>
+    <hyperlink ref="D93" r:id="rId182"/>
+    <hyperlink ref="E93" r:id="rId183"/>
+    <hyperlink ref="D94" r:id="rId184"/>
+    <hyperlink ref="E94" r:id="rId185"/>
+    <hyperlink ref="D95" r:id="rId186"/>
+    <hyperlink ref="E95" r:id="rId187"/>
+    <hyperlink ref="D96" r:id="rId188"/>
+    <hyperlink ref="E96" r:id="rId189"/>
+    <hyperlink ref="D97" r:id="rId190"/>
+    <hyperlink ref="E97" r:id="rId191"/>
+    <hyperlink ref="D98" r:id="rId192"/>
+    <hyperlink ref="E98" r:id="rId193"/>
+    <hyperlink ref="D99" r:id="rId194"/>
+    <hyperlink ref="E99" r:id="rId195"/>
+    <hyperlink ref="D100" r:id="rId196"/>
+    <hyperlink ref="E100" r:id="rId197"/>
+    <hyperlink ref="D101" r:id="rId198"/>
+    <hyperlink ref="E101" r:id="rId199"/>
+    <hyperlink ref="D102" r:id="rId200"/>
+    <hyperlink ref="D103" r:id="rId201"/>
+    <hyperlink ref="E103" r:id="rId202"/>
+    <hyperlink ref="D104" r:id="rId203"/>
+    <hyperlink ref="E104" r:id="rId204"/>
+    <hyperlink ref="D105" r:id="rId205"/>
+    <hyperlink ref="E105" r:id="rId206"/>
+    <hyperlink ref="D106" r:id="rId207"/>
+    <hyperlink ref="E106" r:id="rId208"/>
+    <hyperlink ref="D107" r:id="rId209"/>
+    <hyperlink ref="E107" r:id="rId210"/>
+    <hyperlink ref="D108" r:id="rId211"/>
+    <hyperlink ref="E108" r:id="rId212"/>
+    <hyperlink ref="D109" r:id="rId213"/>
+    <hyperlink ref="E109" r:id="rId214"/>
+    <hyperlink ref="D110" r:id="rId215"/>
+    <hyperlink ref="E110" r:id="rId216"/>
+    <hyperlink ref="D111" r:id="rId217"/>
+    <hyperlink ref="E111" r:id="rId218"/>
+    <hyperlink ref="D112" r:id="rId219"/>
+    <hyperlink ref="E112" r:id="rId220"/>
+    <hyperlink ref="D113" r:id="rId221"/>
+    <hyperlink ref="E113" r:id="rId222"/>
+    <hyperlink ref="D114" r:id="rId223"/>
+    <hyperlink ref="E114" r:id="rId224"/>
+    <hyperlink ref="D115" r:id="rId225"/>
+    <hyperlink ref="E115" r:id="rId226"/>
+    <hyperlink ref="D116" r:id="rId227"/>
+    <hyperlink ref="E116" r:id="rId228"/>
+    <hyperlink ref="D117" r:id="rId229"/>
+    <hyperlink ref="E117" r:id="rId230"/>
+    <hyperlink ref="D118" r:id="rId231"/>
+    <hyperlink ref="E118" r:id="rId232"/>
+    <hyperlink ref="D119" r:id="rId233"/>
+    <hyperlink ref="D120" r:id="rId234"/>
+    <hyperlink ref="E120" r:id="rId235"/>
+    <hyperlink ref="D121" r:id="rId236"/>
+    <hyperlink ref="E121" r:id="rId237"/>
+    <hyperlink ref="D122" r:id="rId238"/>
+    <hyperlink ref="E122" r:id="rId239"/>
+    <hyperlink ref="D123" r:id="rId240"/>
+    <hyperlink ref="E123" r:id="rId241"/>
+    <hyperlink ref="D124" r:id="rId242"/>
+    <hyperlink ref="E124" r:id="rId243"/>
+    <hyperlink ref="D125" r:id="rId244"/>
+    <hyperlink ref="E125" r:id="rId245"/>
+    <hyperlink ref="D126" r:id="rId246"/>
+    <hyperlink ref="E126" r:id="rId247"/>
+    <hyperlink ref="D127" r:id="rId248"/>
+    <hyperlink ref="E127" r:id="rId249"/>
+    <hyperlink ref="D128" r:id="rId250"/>
+    <hyperlink ref="E128" r:id="rId251"/>
+    <hyperlink ref="D129" r:id="rId252"/>
+    <hyperlink ref="E129" r:id="rId253"/>
+    <hyperlink ref="D130" r:id="rId254"/>
+    <hyperlink ref="E130" r:id="rId255"/>
+    <hyperlink ref="D131" r:id="rId256"/>
+    <hyperlink ref="E131" r:id="rId257"/>
+    <hyperlink ref="D132" r:id="rId258"/>
+    <hyperlink ref="E132" r:id="rId259"/>
+    <hyperlink ref="D133" r:id="rId260"/>
+    <hyperlink ref="E133" r:id="rId261"/>
+    <hyperlink ref="D134" r:id="rId262"/>
+    <hyperlink ref="E134" r:id="rId263"/>
+    <hyperlink ref="D135" r:id="rId264"/>
+    <hyperlink ref="E135" r:id="rId265"/>
+    <hyperlink ref="D136" r:id="rId266"/>
+    <hyperlink ref="E136" r:id="rId267"/>
+    <hyperlink ref="D137" r:id="rId268"/>
+    <hyperlink ref="E137" r:id="rId269"/>
+    <hyperlink ref="D138" r:id="rId270"/>
+    <hyperlink ref="E138" r:id="rId271"/>
+    <hyperlink ref="D139" r:id="rId272"/>
+    <hyperlink ref="E139" r:id="rId273"/>
+    <hyperlink ref="D140" r:id="rId274"/>
+    <hyperlink ref="E140" r:id="rId275"/>
+    <hyperlink ref="D141" r:id="rId276"/>
+    <hyperlink ref="E141" r:id="rId277"/>
+    <hyperlink ref="D142" r:id="rId278"/>
+    <hyperlink ref="E142" r:id="rId279"/>
+    <hyperlink ref="D143" r:id="rId280"/>
+    <hyperlink ref="E143" r:id="rId281"/>
+    <hyperlink ref="D144" r:id="rId282"/>
+    <hyperlink ref="E144" r:id="rId283"/>
+    <hyperlink ref="D145" r:id="rId284"/>
+    <hyperlink ref="E145" r:id="rId285"/>
+    <hyperlink ref="D146" r:id="rId286"/>
+    <hyperlink ref="E146" r:id="rId287"/>
+    <hyperlink ref="D147" r:id="rId288"/>
+    <hyperlink ref="E147" r:id="rId289"/>
+    <hyperlink ref="D148" r:id="rId290"/>
+    <hyperlink ref="E148" r:id="rId291"/>
+    <hyperlink ref="D149" r:id="rId292"/>
+    <hyperlink ref="E149" r:id="rId293"/>
+    <hyperlink ref="D150" r:id="rId294"/>
+    <hyperlink ref="E150" r:id="rId295"/>
+    <hyperlink ref="D151" r:id="rId296"/>
+    <hyperlink ref="E151" r:id="rId297"/>
+    <hyperlink ref="D152" r:id="rId298"/>
+    <hyperlink ref="E152" r:id="rId299"/>
+    <hyperlink ref="D153" r:id="rId300"/>
+    <hyperlink ref="E153" r:id="rId301"/>
+    <hyperlink ref="D154" r:id="rId302"/>
+    <hyperlink ref="E154" r:id="rId303"/>
+    <hyperlink ref="D155" r:id="rId304"/>
+    <hyperlink ref="E155" r:id="rId305"/>
+    <hyperlink ref="D156" r:id="rId306"/>
+    <hyperlink ref="E156" r:id="rId307"/>
+    <hyperlink ref="D157" r:id="rId308"/>
+    <hyperlink ref="E157" r:id="rId309"/>
+    <hyperlink ref="D158" r:id="rId310"/>
+    <hyperlink ref="E158" r:id="rId311"/>
+    <hyperlink ref="D159" r:id="rId312"/>
+    <hyperlink ref="E159" r:id="rId313"/>
+    <hyperlink ref="D160" r:id="rId314"/>
+    <hyperlink ref="E160" r:id="rId315"/>
+    <hyperlink ref="D161" r:id="rId316"/>
+    <hyperlink ref="E161" r:id="rId317"/>
+    <hyperlink ref="D162" r:id="rId318"/>
+    <hyperlink ref="E162" r:id="rId319"/>
+    <hyperlink ref="D163" r:id="rId320"/>
+    <hyperlink ref="E163" r:id="rId321"/>
+    <hyperlink ref="D164" r:id="rId322"/>
+    <hyperlink ref="E164" r:id="rId323"/>
+    <hyperlink ref="D165" r:id="rId324"/>
+    <hyperlink ref="E165" r:id="rId325"/>
+    <hyperlink ref="D166" r:id="rId326"/>
+    <hyperlink ref="E166" r:id="rId327"/>
+    <hyperlink ref="D167" r:id="rId328"/>
+    <hyperlink ref="E167" r:id="rId329"/>
+    <hyperlink ref="D168" r:id="rId330"/>
+    <hyperlink ref="E168" r:id="rId331"/>
+    <hyperlink ref="D169" r:id="rId332"/>
+    <hyperlink ref="E169" r:id="rId333"/>
+    <hyperlink ref="D170" r:id="rId334"/>
+    <hyperlink ref="E170" r:id="rId335"/>
+    <hyperlink ref="D171" r:id="rId336"/>
+    <hyperlink ref="E171" r:id="rId337"/>
+    <hyperlink ref="D172" r:id="rId338"/>
+    <hyperlink ref="E172" r:id="rId339"/>
+    <hyperlink ref="D173" r:id="rId340"/>
+    <hyperlink ref="E173" r:id="rId341"/>
+    <hyperlink ref="D174" r:id="rId342"/>
+    <hyperlink ref="D175" r:id="rId343"/>
+    <hyperlink ref="E175" r:id="rId344"/>
+    <hyperlink ref="D176" r:id="rId345"/>
+    <hyperlink ref="E176" r:id="rId346"/>
+    <hyperlink ref="D177" r:id="rId347"/>
+    <hyperlink ref="E177" r:id="rId348"/>
+    <hyperlink ref="D178" r:id="rId349"/>
+    <hyperlink ref="E178" r:id="rId350"/>
+    <hyperlink ref="D179" r:id="rId351"/>
+    <hyperlink ref="E179" r:id="rId352"/>
+    <hyperlink ref="D180" r:id="rId353"/>
+    <hyperlink ref="E180" r:id="rId354"/>
+    <hyperlink ref="D181" r:id="rId355"/>
+    <hyperlink ref="E181" r:id="rId356"/>
+    <hyperlink ref="D182" r:id="rId357"/>
+    <hyperlink ref="E182" r:id="rId358"/>
+    <hyperlink ref="D183" r:id="rId359"/>
+    <hyperlink ref="E183" r:id="rId360"/>
+    <hyperlink ref="D184" r:id="rId361"/>
+    <hyperlink ref="E184" r:id="rId362"/>
+    <hyperlink ref="D185" r:id="rId363"/>
+    <hyperlink ref="E185" r:id="rId364"/>
+    <hyperlink ref="D186" r:id="rId365"/>
+    <hyperlink ref="E186" r:id="rId366"/>
+    <hyperlink ref="D187" r:id="rId367"/>
+    <hyperlink ref="E187" r:id="rId368"/>
+    <hyperlink ref="D188" r:id="rId369"/>
+    <hyperlink ref="E188" r:id="rId370"/>
+    <hyperlink ref="D189" r:id="rId371"/>
+    <hyperlink ref="E189" r:id="rId372"/>
+    <hyperlink ref="D190" r:id="rId373"/>
+    <hyperlink ref="E190" r:id="rId374"/>
+    <hyperlink ref="D191" r:id="rId375"/>
+    <hyperlink ref="E191" r:id="rId376"/>
+    <hyperlink ref="D192" r:id="rId377"/>
+    <hyperlink ref="E192" r:id="rId378"/>
+    <hyperlink ref="D193" r:id="rId379"/>
+    <hyperlink ref="E193" r:id="rId380"/>
+    <hyperlink ref="D194" r:id="rId381"/>
+    <hyperlink ref="E194" r:id="rId382"/>
+    <hyperlink ref="D195" r:id="rId383"/>
+    <hyperlink ref="E195" r:id="rId384"/>
+    <hyperlink ref="D196" r:id="rId385"/>
+    <hyperlink ref="E196" r:id="rId386"/>
+    <hyperlink ref="D197" r:id="rId387"/>
+    <hyperlink ref="E197" r:id="rId388"/>
+    <hyperlink ref="D198" r:id="rId389"/>
+    <hyperlink ref="E198" r:id="rId390"/>
+    <hyperlink ref="D199" r:id="rId391"/>
+    <hyperlink ref="E199" r:id="rId392"/>
+    <hyperlink ref="D200" r:id="rId393"/>
+    <hyperlink ref="E200" r:id="rId394"/>
+    <hyperlink ref="D201" r:id="rId395"/>
+    <hyperlink ref="E201" r:id="rId396"/>
+    <hyperlink ref="D202" r:id="rId397"/>
+    <hyperlink ref="E202" r:id="rId398"/>
+    <hyperlink ref="D203" r:id="rId399"/>
+    <hyperlink ref="E203" r:id="rId400"/>
+    <hyperlink ref="D204" r:id="rId401"/>
+    <hyperlink ref="E204" r:id="rId402"/>
+    <hyperlink ref="D205" r:id="rId403"/>
+    <hyperlink ref="E205" r:id="rId404"/>
+    <hyperlink ref="D206" r:id="rId405"/>
+    <hyperlink ref="E206" r:id="rId406"/>
+    <hyperlink ref="D207" r:id="rId407"/>
+    <hyperlink ref="E207" r:id="rId408"/>
+    <hyperlink ref="D208" r:id="rId409"/>
+    <hyperlink ref="E208" r:id="rId410"/>
+    <hyperlink ref="D209" r:id="rId411"/>
+    <hyperlink ref="E209" r:id="rId412"/>
+    <hyperlink ref="D210" r:id="rId413"/>
+    <hyperlink ref="E210" r:id="rId414"/>
+    <hyperlink ref="D211" r:id="rId415"/>
+    <hyperlink ref="E211" r:id="rId416"/>
+    <hyperlink ref="D212" r:id="rId417"/>
+    <hyperlink ref="E212" r:id="rId418"/>
+    <hyperlink ref="D213" r:id="rId419"/>
+    <hyperlink ref="E213" r:id="rId420"/>
+    <hyperlink ref="D214" r:id="rId421"/>
+    <hyperlink ref="E214" r:id="rId422"/>
+    <hyperlink ref="D215" r:id="rId423"/>
+    <hyperlink ref="E215" r:id="rId424"/>
+    <hyperlink ref="D216" r:id="rId425"/>
+    <hyperlink ref="E216" r:id="rId426"/>
+    <hyperlink ref="D217" r:id="rId427"/>
+    <hyperlink ref="E217" r:id="rId428"/>
+    <hyperlink ref="D218" r:id="rId429"/>
+    <hyperlink ref="E218" r:id="rId430"/>
+    <hyperlink ref="D219" r:id="rId431"/>
+    <hyperlink ref="E219" r:id="rId432"/>
+    <hyperlink ref="D220" r:id="rId433"/>
+    <hyperlink ref="E220" r:id="rId434"/>
+    <hyperlink ref="D221" r:id="rId435"/>
+    <hyperlink ref="E221" r:id="rId436"/>
+    <hyperlink ref="D222" r:id="rId437"/>
+    <hyperlink ref="E222" r:id="rId438"/>
+    <hyperlink ref="D223" r:id="rId439"/>
+    <hyperlink ref="E223" r:id="rId440"/>
+    <hyperlink ref="D224" r:id="rId441"/>
+    <hyperlink ref="E224" r:id="rId442"/>
+    <hyperlink ref="D225" r:id="rId443"/>
+    <hyperlink ref="E225" r:id="rId444"/>
+    <hyperlink ref="D226" r:id="rId445"/>
+    <hyperlink ref="E226" r:id="rId446"/>
+    <hyperlink ref="D227" r:id="rId447"/>
+    <hyperlink ref="E227" r:id="rId448"/>
+    <hyperlink ref="D228" r:id="rId449"/>
+    <hyperlink ref="E228" r:id="rId450"/>
+    <hyperlink ref="D229" r:id="rId451"/>
+    <hyperlink ref="E229" r:id="rId452"/>
+    <hyperlink ref="D230" r:id="rId453"/>
+    <hyperlink ref="E230" r:id="rId454"/>
+    <hyperlink ref="D231" r:id="rId455"/>
+    <hyperlink ref="E231" r:id="rId456"/>
+    <hyperlink ref="D232" r:id="rId457"/>
+    <hyperlink ref="E232" r:id="rId458"/>
+    <hyperlink ref="D233" r:id="rId459"/>
+    <hyperlink ref="E233" r:id="rId460"/>
+    <hyperlink ref="D234" r:id="rId461"/>
+    <hyperlink ref="E234" r:id="rId462"/>
+    <hyperlink ref="D235" r:id="rId463"/>
+    <hyperlink ref="E235" r:id="rId464"/>
+    <hyperlink ref="D236" r:id="rId465"/>
+    <hyperlink ref="D237" r:id="rId466"/>
+    <hyperlink ref="E237" r:id="rId467"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
